--- a/BackTest/2019-11-13 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-13 BackTest HDAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.699999999999996</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-17.64705882352971</v>
+      </c>
       <c r="L12" t="n">
         <v>36.56</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.899999999999991</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-41.17647058823515</v>
+      </c>
       <c r="L13" t="n">
         <v>36.51</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.099999999999987</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-17.64705882352971</v>
+      </c>
       <c r="L14" t="n">
         <v>36.45999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.099999999999987</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-6.666666666666793</v>
+      </c>
       <c r="L15" t="n">
         <v>36.42999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.099999999999987</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-23.07692307692358</v>
+      </c>
       <c r="L16" t="n">
         <v>36.41999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.099999999999987</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-16.66666666666706</v>
+      </c>
       <c r="L17" t="n">
         <v>36.38999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.199999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>9.090909090909326</v>
+      </c>
       <c r="L18" t="n">
         <v>36.37999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.399999999999991</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>45.45454545454569</v>
+      </c>
       <c r="L19" t="n">
         <v>36.40999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-16.66666666666686</v>
+      </c>
       <c r="L20" t="n">
         <v>36.41999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.299999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L21" t="n">
         <v>36.45</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.299999999999997</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>42.85714285714228</v>
+      </c>
       <c r="L22" t="n">
         <v>36.48999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.599999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.555555555555643</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L23" t="n">
         <v>36.52</v>
@@ -1466,7 +1488,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.555555555555435</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L24" t="n">
         <v>36.55</v>
@@ -1515,7 +1537,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L25" t="n">
         <v>36.58</v>
@@ -1564,7 +1586,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>6.250000000000083</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L26" t="n">
         <v>36.61</v>
@@ -1613,7 +1635,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.090909090909207</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L27" t="n">
         <v>36.61</v>
@@ -1662,7 +1684,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>2.857142857142892</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>36.63</v>
@@ -1711,7 +1733,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L29" t="n">
         <v>36.6</v>
@@ -1760,7 +1782,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>5.882352941176324</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L30" t="n">
         <v>36.61</v>
@@ -1809,7 +1831,7 @@
         <v>4.800000000000011</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.250000000000055</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L31" t="n">
         <v>36.56</v>
@@ -1860,7 +1882,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.249999999999847</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L32" t="n">
         <v>36.49999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L33" t="n">
         <v>36.46999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.448275862068999</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L34" t="n">
         <v>36.42999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.666666666666508</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L35" t="n">
         <v>36.38</v>
@@ -2115,7 +2137,7 @@
         <v>5.599999999999987</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.571428571428489</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L37" t="n">
         <v>36.32</v>
@@ -2166,7 +2188,7 @@
         <v>5.799999999999983</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.555555555555643</v>
+        <v>-9.090909090909443</v>
       </c>
       <c r="L38" t="n">
         <v>36.28</v>
@@ -2217,7 +2239,7 @@
         <v>5.999999999999979</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.66666666666677</v>
+        <v>-23.07692307692341</v>
       </c>
       <c r="L39" t="n">
         <v>36.25000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>6.299999999999976</v>
       </c>
       <c r="K41" t="n">
-        <v>-13.33333333333338</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>36.25000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>6.299999999999976</v>
       </c>
       <c r="K42" t="n">
-        <v>-13.33333333333338</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L42" t="n">
         <v>36.27</v>
@@ -2421,7 +2443,7 @@
         <v>6.399999999999977</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L43" t="n">
         <v>36.3</v>
@@ -2472,7 +2494,7 @@
         <v>6.799999999999976</v>
       </c>
       <c r="K44" t="n">
-        <v>-20.00000000000019</v>
+        <v>-5.882352941176618</v>
       </c>
       <c r="L44" t="n">
         <v>36.28000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>7.199999999999974</v>
       </c>
       <c r="K45" t="n">
-        <v>-5.882352941176594</v>
+        <v>5.263157894736961</v>
       </c>
       <c r="L45" t="n">
         <v>36.31000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>7.599999999999973</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.78947368421066</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>36.28000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>7.699999999999974</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.555555555555479</v>
+        <v>-5.263157894736566</v>
       </c>
       <c r="L47" t="n">
         <v>36.29000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>7.799999999999976</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.64705882352961</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>36.27000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>8.099999999999973</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L49" t="n">
         <v>36.3</v>
@@ -2778,7 +2800,7 @@
         <v>8.299999999999969</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.5555555555555</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L50" t="n">
         <v>36.29000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>8.399999999999963</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L51" t="n">
         <v>36.28000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>8.499999999999957</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>36.26000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>8.599999999999959</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.702702702702775</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>36.22000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>8.599999999999959</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.5555555555555</v>
+        <v>-28.57142857142879</v>
       </c>
       <c r="L54" t="n">
         <v>36.22000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>8.799999999999955</v>
       </c>
       <c r="K55" t="n">
-        <v>2.702702702702578</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L55" t="n">
         <v>36.20000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>8.799999999999955</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.857142857142927</v>
+        <v>9.090909090908738</v>
       </c>
       <c r="L56" t="n">
         <v>36.22000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>8.799999999999955</v>
       </c>
       <c r="K57" t="n">
-        <v>6.249999999999931</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
         <v>36.23000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>8.99999999999995</v>
       </c>
       <c r="K58" t="n">
-        <v>-6.249999999999931</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L58" t="n">
         <v>36.23000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>9.099999999999952</v>
       </c>
       <c r="K59" t="n">
-        <v>3.225806451612977</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>36.21000000000002</v>
@@ -3288,7 +3310,7 @@
         <v>9.199999999999953</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.666666666666572</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L60" t="n">
         <v>36.20000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>9.399999999999949</v>
       </c>
       <c r="K61" t="n">
-        <v>-3.225806451612977</v>
+        <v>11.11111111111058</v>
       </c>
       <c r="L61" t="n">
         <v>36.20000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>9.599999999999945</v>
       </c>
       <c r="K62" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>36.19000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>9.599999999999945</v>
       </c>
       <c r="K63" t="n">
-        <v>-12.50000000000008</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>36.19000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>9.699999999999946</v>
       </c>
       <c r="K64" t="n">
-        <v>3.44827586206905</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L64" t="n">
         <v>36.20000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>9.699999999999946</v>
       </c>
       <c r="K65" t="n">
-        <v>-12.00000000000002</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L65" t="n">
         <v>36.19000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>9.79999999999994</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>36.19000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>9.79999999999994</v>
       </c>
       <c r="K67" t="n">
-        <v>4.761904761904569</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L67" t="n">
         <v>36.19000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>9.79999999999994</v>
       </c>
       <c r="K68" t="n">
-        <v>9.999999999999964</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L68" t="n">
         <v>36.21000000000002</v>
@@ -3747,7 +3769,7 @@
         <v>9.899999999999942</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L69" t="n">
         <v>36.23000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>9.899999999999942</v>
       </c>
       <c r="K70" t="n">
-        <v>12.49999999999994</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L70" t="n">
         <v>36.26000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>9.899999999999942</v>
       </c>
       <c r="K71" t="n">
-        <v>6.666666666666857</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>36.27</v>
@@ -3900,7 +3922,7 @@
         <v>10.09999999999994</v>
       </c>
       <c r="K72" t="n">
-        <v>25.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>36.32000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>10.29999999999995</v>
       </c>
       <c r="K73" t="n">
-        <v>17.64705882352936</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L73" t="n">
         <v>36.35</v>
@@ -4002,7 +4024,7 @@
         <v>10.29999999999995</v>
       </c>
       <c r="K74" t="n">
-        <v>17.64705882352936</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L74" t="n">
         <v>36.37</v>
@@ -4053,7 +4075,7 @@
         <v>10.49999999999995</v>
       </c>
       <c r="K75" t="n">
-        <v>17.64705882352971</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L75" t="n">
         <v>36.41</v>
@@ -4104,7 +4126,7 @@
         <v>10.49999999999995</v>
       </c>
       <c r="K76" t="n">
-        <v>17.64705882352971</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L76" t="n">
         <v>36.44</v>
@@ -4206,7 +4228,7 @@
         <v>10.79999999999995</v>
       </c>
       <c r="K78" t="n">
-        <v>11.11111111111085</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L78" t="n">
         <v>36.44</v>
@@ -4257,7 +4279,7 @@
         <v>11.09999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>19.99999999999986</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>36.46000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>11.29999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>14.28571428571409</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>36.46000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>11.39999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L81" t="n">
         <v>36.45000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>11.39999999999996</v>
       </c>
       <c r="K82" t="n">
-        <v>11.11111111111076</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L82" t="n">
         <v>36.42000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>19.99999999999972</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L83" t="n">
         <v>36.43000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>11.79999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>4.761904761904439</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L84" t="n">
         <v>36.42000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>11.79999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>4.761904761904439</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L85" t="n">
         <v>36.39000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L86" t="n">
         <v>36.37000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L87" t="n">
         <v>36.38000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>11.99999999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L88" t="n">
         <v>36.40000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>12.29999999999997</v>
       </c>
       <c r="K90" t="n">
-        <v>-8.333333333333062</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L90" t="n">
         <v>36.36</v>
@@ -4869,7 +4891,7 @@
         <v>12.59999999999997</v>
       </c>
       <c r="K91" t="n">
-        <v>3.703703703703723</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L91" t="n">
         <v>36.38</v>
@@ -4920,7 +4942,7 @@
         <v>12.59999999999997</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>36.4</v>
@@ -4971,7 +4993,7 @@
         <v>12.69999999999997</v>
       </c>
       <c r="K93" t="n">
-        <v>8.333333333333384</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L93" t="n">
         <v>36.41</v>
@@ -5022,7 +5044,7 @@
         <v>12.69999999999997</v>
       </c>
       <c r="K94" t="n">
-        <v>8.333333333333384</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L94" t="n">
         <v>36.44</v>
@@ -5073,7 +5095,7 @@
         <v>12.69999999999997</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L95" t="n">
         <v>36.47000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K96" t="n">
-        <v>4.347826086956549</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L96" t="n">
         <v>36.50000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>12.89999999999997</v>
       </c>
       <c r="K97" t="n">
-        <v>14.28571428571438</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L97" t="n">
         <v>36.52000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>12.89999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>14.28571428571438</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L98" t="n">
         <v>36.53000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>12.89999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L99" t="n">
         <v>36.55000000000002</v>
@@ -5328,7 +5350,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>36.57000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>13.19999999999997</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>36.55000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>5.263157894736882</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>36.54000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>-5.88235294117652</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>36.52000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L104" t="n">
         <v>36.49000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>13.49999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>5.88235294117652</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L105" t="n">
         <v>36.47000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.88235294117652</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L106" t="n">
         <v>36.43000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>13.69999999999998</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L107" t="n">
         <v>36.41</v>
@@ -5736,7 +5758,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>-15.78947368421033</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L108" t="n">
         <v>36.37</v>
@@ -5838,7 +5860,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>19.99999999999986</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L110" t="n">
         <v>36.37</v>
@@ -5889,7 +5911,7 @@
         <v>14.59999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>-10.00000000000007</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L111" t="n">
         <v>36.37</v>
@@ -5940,7 +5962,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L112" t="n">
         <v>36.38</v>
@@ -5991,7 +6013,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L113" t="n">
         <v>36.40000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L114" t="n">
         <v>36.43000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>4.347826086956549</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L115" t="n">
         <v>36.46000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L116" t="n">
         <v>36.50000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>4.761904761904794</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L117" t="n">
         <v>36.53000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>4.761904761904794</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>36.58000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>4.761904761904794</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L119" t="n">
         <v>36.61000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>23.80952380952371</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>36.64</v>
@@ -6399,7 +6421,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>29.99999999999996</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
         <v>36.7</v>
@@ -6450,7 +6472,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>26.31578947368413</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>36.73999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>26.31578947368413</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
         <v>36.77</v>
@@ -6552,7 +6574,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>36.79999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>29.41176470588231</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>36.81999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>37.50000000000006</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>36.83999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>41.17647058823539</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>36.87999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>62.49999999999967</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
         <v>36.92999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K129" t="n">
-        <v>59.99999999999962</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>36.98999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>59.99999999999962</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>37.05</v>
@@ -7113,7 +7135,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>88.88888888888872</v>
+        <v>87.49999999999983</v>
       </c>
       <c r="L135" t="n">
         <v>37.55</v>
@@ -7164,7 +7186,7 @@
         <v>17.19999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>54.54545454545445</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L136" t="n">
         <v>37.65000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L137" t="n">
         <v>37.76000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>53.84615384615377</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L138" t="n">
         <v>37.85000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>55.5555555555555</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L139" t="n">
         <v>37.94</v>
@@ -7368,7 +7390,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>52.00000000000002</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L140" t="n">
         <v>38.01000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>17.89999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>40.74074074074064</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L141" t="n">
         <v>38.06</v>
@@ -7470,7 +7492,7 @@
         <v>18.09999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>31.0344827586205</v>
+        <v>4.761904761904471</v>
       </c>
       <c r="L142" t="n">
         <v>38.08</v>
@@ -7521,7 +7543,7 @@
         <v>18.2</v>
       </c>
       <c r="K143" t="n">
-        <v>33.33333333333318</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L143" t="n">
         <v>38.1</v>
@@ -7572,7 +7594,7 @@
         <v>18.39999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>25.00000000000006</v>
+        <v>-37.49999999999945</v>
       </c>
       <c r="L144" t="n">
         <v>38.03</v>
@@ -7623,7 +7645,7 @@
         <v>18.39999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>25.00000000000006</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L145" t="n">
         <v>37.97</v>
@@ -7674,7 +7696,7 @@
         <v>18.39999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>25.00000000000006</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L146" t="n">
         <v>37.95</v>
@@ -7725,7 +7747,7 @@
         <v>18.89999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>2.857142857142892</v>
+        <v>-69.2307692307689</v>
       </c>
       <c r="L147" t="n">
         <v>37.85</v>
@@ -7776,7 +7798,7 @@
         <v>19.29999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>10.52631578947364</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L148" t="n">
         <v>37.8</v>
@@ -7827,7 +7849,7 @@
         <v>19.29999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>8.108108108108201</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L149" t="n">
         <v>37.74</v>
@@ -7878,7 +7900,7 @@
         <v>19.39999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>5.555555555555621</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L150" t="n">
         <v>37.69</v>
@@ -7929,7 +7951,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>10.52631578947364</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L151" t="n">
         <v>37.68</v>
@@ -7980,7 +8002,7 @@
         <v>19.69999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>5.263157894736723</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L152" t="n">
         <v>37.68</v>
@@ -8031,7 +8053,7 @@
         <v>19.79999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>5.263157894736723</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L153" t="n">
         <v>37.68</v>
@@ -8082,7 +8104,7 @@
         <v>19.79999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>-16.12903225806447</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L154" t="n">
         <v>37.7</v>
@@ -8133,7 +8155,7 @@
         <v>20.09999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-21.21212121212105</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L155" t="n">
         <v>37.69</v>
@@ -8184,7 +8206,7 @@
         <v>20.09999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-10.34482758620678</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>37.68000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>20.39999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-31.03448275862083</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L157" t="n">
         <v>37.69000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>20.39999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-28.57142857142868</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L158" t="n">
         <v>37.66000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>20.7</v>
       </c>
       <c r="K159" t="n">
-        <v>-20</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L159" t="n">
         <v>37.66000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>20.7</v>
       </c>
       <c r="K160" t="n">
-        <v>-20</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L160" t="n">
         <v>37.65000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>20.89999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>37.64000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>3.448275862069016</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>37.65000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>21.3</v>
       </c>
       <c r="K164" t="n">
-        <v>17.24137931034479</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L164" t="n">
         <v>37.68000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>21.7</v>
       </c>
       <c r="K165" t="n">
-        <v>3.030303030302848</v>
+        <v>12.49999999999961</v>
       </c>
       <c r="L165" t="n">
         <v>37.70000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>19.99999999999986</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L166" t="n">
         <v>37.79000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>37.14285714285691</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L167" t="n">
         <v>37.91000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K168" t="n">
-        <v>29.03225806451594</v>
+        <v>52.94117647058785</v>
       </c>
       <c r="L168" t="n">
         <v>38.03000000000001</v>
@@ -8847,7 +8869,7 @@
         <v>22.8</v>
       </c>
       <c r="K169" t="n">
-        <v>14.28571428571423</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L169" t="n">
         <v>38.08000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>23</v>
       </c>
       <c r="K170" t="n">
-        <v>16.66666666666647</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L170" t="n">
         <v>38.15000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>23.2</v>
       </c>
       <c r="K171" t="n">
-        <v>16.66666666666663</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L171" t="n">
         <v>38.22000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>23.6</v>
       </c>
       <c r="K172" t="n">
-        <v>28.20512820512815</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L172" t="n">
         <v>38.32000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>23.7</v>
       </c>
       <c r="K173" t="n">
-        <v>28.20512820512815</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L173" t="n">
         <v>38.43000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>23.7</v>
       </c>
       <c r="K174" t="n">
-        <v>28.20512820512815</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L174" t="n">
         <v>38.51000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>23.7</v>
       </c>
       <c r="K175" t="n">
-        <v>38.88888888888868</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L175" t="n">
         <v>38.63000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>23.90000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>42.10526315789457</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L176" t="n">
         <v>38.7</v>
@@ -9255,7 +9277,7 @@
         <v>24</v>
       </c>
       <c r="K177" t="n">
-        <v>55.55555555555542</v>
+        <v>50</v>
       </c>
       <c r="L177" t="n">
         <v>38.78000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>24.2</v>
       </c>
       <c r="K178" t="n">
-        <v>47.36842105263164</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L178" t="n">
         <v>38.84000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>24.2</v>
       </c>
       <c r="K179" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L179" t="n">
         <v>38.94000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>24.2</v>
       </c>
       <c r="K180" t="n">
-        <v>42.85714285714285</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L180" t="n">
         <v>39.02000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>24.39999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>42.85714285714285</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L181" t="n">
         <v>39.10000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>24.59999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>44.44444444444446</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L182" t="n">
         <v>39.16000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>24.7</v>
       </c>
       <c r="K183" t="n">
-        <v>40.54054054054051</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L183" t="n">
         <v>39.20000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>25.3</v>
       </c>
       <c r="K184" t="n">
-        <v>14.99999999999986</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L184" t="n">
         <v>39.18000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>25.8</v>
       </c>
       <c r="K185" t="n">
-        <v>36.58536585365859</v>
+        <v>5.263157894736566</v>
       </c>
       <c r="L185" t="n">
         <v>39.21000000000002</v>
@@ -9714,7 +9736,7 @@
         <v>25.8</v>
       </c>
       <c r="K186" t="n">
-        <v>23.52941176470586</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>39.22000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>25.9</v>
       </c>
       <c r="K187" t="n">
-        <v>25.71428571428573</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L187" t="n">
         <v>39.23000000000001</v>
@@ -9816,7 +9838,7 @@
         <v>25.9</v>
       </c>
       <c r="K188" t="n">
-        <v>25.71428571428573</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L188" t="n">
         <v>39.26000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>25.9</v>
       </c>
       <c r="K189" t="n">
-        <v>41.93548387096773</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L189" t="n">
         <v>39.29000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>25.9</v>
       </c>
       <c r="K190" t="n">
-        <v>37.93103448275869</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L190" t="n">
         <v>39.32</v>
@@ -9969,7 +9991,7 @@
         <v>25.9</v>
       </c>
       <c r="K191" t="n">
-        <v>33.33333333333333</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L191" t="n">
         <v>39.33</v>
@@ -10020,7 +10042,7 @@
         <v>26.09999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>12.0000000000002</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L192" t="n">
         <v>39.3</v>
@@ -10071,7 +10093,7 @@
         <v>26.09999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>8.333333333333481</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L193" t="n">
         <v>39.27999999999999</v>
@@ -10122,7 +10144,7 @@
         <v>26.39999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>18.51851851851859</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L194" t="n">
         <v>39.34999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>26.39999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>18.51851851851859</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L195" t="n">
         <v>39.36999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>26.49999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>15.3846153846154</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L196" t="n">
         <v>39.39999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>26.59999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>15.38461538461564</v>
+        <v>42.85714285714373</v>
       </c>
       <c r="L197" t="n">
         <v>39.42999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>26.8</v>
       </c>
       <c r="K198" t="n">
-        <v>15.38461538461532</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L198" t="n">
         <v>39.44</v>
@@ -10377,7 +10399,7 @@
         <v>26.8</v>
       </c>
       <c r="K199" t="n">
-        <v>15.38461538461532</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L199" t="n">
         <v>39.45</v>
@@ -10428,7 +10450,7 @@
         <v>27.2</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L200" t="n">
         <v>39.42</v>
@@ -10479,7 +10501,7 @@
         <v>27.2</v>
       </c>
       <c r="K201" t="n">
-        <v>-7.14285714285698</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L201" t="n">
         <v>39.39000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>27.3</v>
       </c>
       <c r="K202" t="n">
-        <v>-18.5185185185185</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L202" t="n">
         <v>39.37000000000001</v>
@@ -10581,7 +10603,7 @@
         <v>28.09999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-35.29411764705871</v>
+        <v>-76.47058823529382</v>
       </c>
       <c r="L203" t="n">
         <v>39.27000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>28.29999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>-13.33333333333332</v>
+        <v>-57.89473684210537</v>
       </c>
       <c r="L204" t="n">
         <v>39.16000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>28.49999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>-25.92592592592581</v>
+        <v>-50</v>
       </c>
       <c r="L205" t="n">
         <v>39.07000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>28.7</v>
       </c>
       <c r="K206" t="n">
-        <v>-31.03448275862066</v>
+        <v>-61.90476190476206</v>
       </c>
       <c r="L206" t="n">
         <v>38.95</v>
@@ -10785,7 +10807,7 @@
         <v>28.9</v>
       </c>
       <c r="K207" t="n">
-        <v>-26.66666666666657</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L207" t="n">
         <v>38.84000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-18.75000000000007</v>
+        <v>-30.43478260869582</v>
       </c>
       <c r="L208" t="n">
         <v>38.77000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>29.29999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-23.52941176470586</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L209" t="n">
         <v>38.68000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>29.39999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>-19.99999999999992</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L210" t="n">
         <v>38.64000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>29.49999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>-16.66666666666677</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L211" t="n">
         <v>38.61000000000001</v>
@@ -11040,7 +11062,7 @@
         <v>29.49999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>-11.76470588235314</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L212" t="n">
         <v>38.59000000000001</v>
@@ -11091,7 +11113,7 @@
         <v>29.59999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>-8.57142857142871</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L213" t="n">
         <v>38.66000000000001</v>
@@ -11142,7 +11164,7 @@
         <v>29.69999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>-15.15151515151517</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>38.72000000000001</v>
@@ -11193,7 +11215,7 @@
         <v>29.69999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>-15.15151515151517</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L215" t="n">
         <v>38.76000000000001</v>
@@ -11244,7 +11266,7 @@
         <v>29.79999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>-15.15151515151517</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L216" t="n">
         <v>38.83000000000001</v>
@@ -11295,7 +11317,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>-11.76470588235314</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L217" t="n">
         <v>38.90000000000001</v>
@@ -11346,7 +11368,7 @@
         <v>30.69999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>-23.07692307692313</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>38.88000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>30.79999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>-25.00000000000009</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L219" t="n">
         <v>38.87000000000001</v>
@@ -11448,7 +11470,7 @@
         <v>30.79999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>-16.66666666666677</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L220" t="n">
         <v>38.85000000000001</v>
@@ -11499,7 +11521,7 @@
         <v>31.09999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>-23.07692307692313</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L221" t="n">
         <v>38.79000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>31.39999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-12.19512195121957</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L222" t="n">
         <v>38.76000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>31.39999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>9.090909090909053</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L223" t="n">
         <v>38.72000000000001</v>
@@ -11652,7 +11674,7 @@
         <v>31.49999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>6.250000000000111</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L224" t="n">
         <v>38.68000000000001</v>
@@ -11703,7 +11725,7 @@
         <v>31.79999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>9.090909090909053</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L225" t="n">
         <v>38.67000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>31.79999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>16.12903225806462</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L226" t="n">
         <v>38.65000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>32.19999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>-3.030303030303096</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L227" t="n">
         <v>38.57000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>32.39999999999998</v>
       </c>
       <c r="K228" t="n">
-        <v>-3.030303030302874</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L228" t="n">
         <v>38.58</v>
@@ -11907,7 +11929,7 @@
         <v>32.49999999999997</v>
       </c>
       <c r="K229" t="n">
-        <v>6.249999999999903</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L229" t="n">
         <v>38.61</v>
@@ -11958,7 +11980,7 @@
         <v>32.79999999999997</v>
       </c>
       <c r="K230" t="n">
-        <v>-5.882352941176594</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L230" t="n">
         <v>38.61</v>
@@ -12009,7 +12031,7 @@
         <v>32.79999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>-9.090909090909053</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>38.64</v>
@@ -12060,7 +12082,7 @@
         <v>32.99999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>-2.857142857142707</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L232" t="n">
         <v>38.66</v>
@@ -12111,7 +12133,7 @@
         <v>32.99999999999997</v>
       </c>
       <c r="K233" t="n">
-        <v>-5.882352941176372</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L233" t="n">
         <v>38.68</v>
@@ -12162,7 +12184,7 @@
         <v>33.09999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>-11.76470588235295</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L234" t="n">
         <v>38.68</v>
@@ -12213,7 +12235,7 @@
         <v>33.19999999999997</v>
       </c>
       <c r="K235" t="n">
-        <v>-8.571428571428525</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L235" t="n">
         <v>38.66</v>
@@ -12264,7 +12286,7 @@
         <v>33.39999999999997</v>
       </c>
       <c r="K236" t="n">
-        <v>-5.555555555555665</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>38.66</v>
@@ -12315,7 +12337,7 @@
         <v>33.59999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>-16.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>38.68</v>
@@ -12366,7 +12388,7 @@
         <v>33.59999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>3.448275862069033</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L238" t="n">
         <v>38.68</v>
@@ -12417,7 +12439,7 @@
         <v>33.69999999999997</v>
       </c>
       <c r="K239" t="n">
-        <v>3.448275862069033</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L239" t="n">
         <v>38.66</v>
@@ -12468,7 +12490,7 @@
         <v>33.69999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>3.448275862069033</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L240" t="n">
         <v>38.67</v>
@@ -12519,7 +12541,7 @@
         <v>33.89999999999997</v>
       </c>
       <c r="K241" t="n">
-        <v>7.142857142857016</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L241" t="n">
         <v>38.66</v>
@@ -12570,7 +12592,7 @@
         <v>34.09999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>-11.11111111111105</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L242" t="n">
         <v>38.61</v>
@@ -12621,7 +12643,7 @@
         <v>34.29999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>-17.24137931034488</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L243" t="n">
         <v>38.54000000000001</v>
@@ -12672,7 +12694,7 @@
         <v>34.39999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>-17.24137931034488</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L244" t="n">
         <v>38.49</v>
@@ -12723,7 +12745,7 @@
         <v>34.39999999999997</v>
       </c>
       <c r="K245" t="n">
-        <v>-30.76923076923073</v>
+        <v>-79.99999999999972</v>
       </c>
       <c r="L245" t="n">
         <v>38.43000000000001</v>
@@ -12774,7 +12796,7 @@
         <v>34.39999999999997</v>
       </c>
       <c r="K246" t="n">
-        <v>-30.76923076923073</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L246" t="n">
         <v>38.35000000000001</v>
@@ -12825,7 +12847,7 @@
         <v>34.39999999999997</v>
       </c>
       <c r="K247" t="n">
-        <v>-18.18181818181815</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L247" t="n">
         <v>38.29000000000001</v>
@@ -12876,7 +12898,7 @@
         <v>34.49999999999997</v>
       </c>
       <c r="K248" t="n">
-        <v>-23.80952380952387</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L248" t="n">
         <v>38.24000000000002</v>
@@ -12927,7 +12949,7 @@
         <v>34.59999999999997</v>
       </c>
       <c r="K249" t="n">
-        <v>-23.80952380952387</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L249" t="n">
         <v>38.21000000000002</v>
@@ -12978,7 +13000,7 @@
         <v>34.69999999999997</v>
       </c>
       <c r="K250" t="n">
-        <v>-5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>38.19000000000001</v>
@@ -13029,7 +13051,7 @@
         <v>34.69999999999997</v>
       </c>
       <c r="K251" t="n">
-        <v>-5.263157894736921</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L251" t="n">
         <v>38.19000000000001</v>
@@ -13080,7 +13102,7 @@
         <v>34.79999999999997</v>
       </c>
       <c r="K252" t="n">
-        <v>-11.11111111111129</v>
+        <v>100</v>
       </c>
       <c r="L252" t="n">
         <v>38.22000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>34.89999999999997</v>
       </c>
       <c r="K253" t="n">
-        <v>-5.263157894736921</v>
+        <v>100</v>
       </c>
       <c r="L253" t="n">
         <v>38.28000000000002</v>
@@ -13182,7 +13204,7 @@
         <v>34.89999999999997</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L254" t="n">
         <v>38.33000000000001</v>
@@ -13233,7 +13255,7 @@
         <v>34.89999999999997</v>
       </c>
       <c r="K255" t="n">
-        <v>-5.882352941176569</v>
+        <v>100</v>
       </c>
       <c r="L255" t="n">
         <v>38.38000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>34.89999999999997</v>
       </c>
       <c r="K256" t="n">
-        <v>-19.99999999999981</v>
+        <v>100</v>
       </c>
       <c r="L256" t="n">
         <v>38.43000000000001</v>
@@ -13335,7 +13357,7 @@
         <v>34.99999999999997</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.28571428571443</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L257" t="n">
         <v>38.47000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>35.09999999999997</v>
       </c>
       <c r="K258" t="n">
-        <v>-20.00000000000019</v>
+        <v>20</v>
       </c>
       <c r="L258" t="n">
         <v>38.49000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>35.09999999999997</v>
       </c>
       <c r="K259" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>38.50000000000001</v>
@@ -13488,7 +13510,7 @@
         <v>35.09999999999997</v>
       </c>
       <c r="K260" t="n">
-        <v>-14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>38.50000000000001</v>
@@ -13539,7 +13561,7 @@
         <v>35.19999999999997</v>
       </c>
       <c r="K261" t="n">
-        <v>-7.692307692307776</v>
+        <v>-50</v>
       </c>
       <c r="L261" t="n">
         <v>38.49000000000001</v>
@@ -13590,7 +13612,7 @@
         <v>35.39999999999998</v>
       </c>
       <c r="K262" t="n">
-        <v>23.07692307692266</v>
+        <v>-20</v>
       </c>
       <c r="L262" t="n">
         <v>38.49000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>35.49999999999998</v>
       </c>
       <c r="K263" t="n">
-        <v>33.33333333333294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>38.47000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>35.59999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>16.66666666666617</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L264" t="n">
         <v>38.44</v>
@@ -13743,7 +13765,7 @@
         <v>35.59999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>16.66666666666617</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L265" t="n">
         <v>38.41</v>
@@ -13794,7 +13816,7 @@
         <v>35.59999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>16.66666666666617</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>38.38</v>
@@ -13845,7 +13867,7 @@
         <v>35.59999999999998</v>
       </c>
       <c r="K267" t="n">
-        <v>16.66666666666617</v>
+        <v>-20</v>
       </c>
       <c r="L267" t="n">
         <v>38.36</v>
@@ -13896,7 +13918,7 @@
         <v>35.69999999999997</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L268" t="n">
         <v>38.34</v>
@@ -13947,7 +13969,7 @@
         <v>35.79999999999998</v>
       </c>
       <c r="K269" t="n">
-        <v>-16.66666666666617</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L269" t="n">
         <v>38.31000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>35.79999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>-27.2727272727268</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L270" t="n">
         <v>38.28000000000002</v>
@@ -14049,7 +14071,7 @@
         <v>35.89999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>-33.33333333333294</v>
+        <v>-100</v>
       </c>
       <c r="L271" t="n">
         <v>38.25000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>35.89999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>-45.45454545454511</v>
+        <v>-100</v>
       </c>
       <c r="L272" t="n">
         <v>38.20000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>35.99999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>-63.6363636363634</v>
+        <v>-100</v>
       </c>
       <c r="L273" t="n">
         <v>38.15000000000001</v>
@@ -14202,7 +14224,7 @@
         <v>35.99999999999998</v>
       </c>
       <c r="K274" t="n">
-        <v>-63.6363636363634</v>
+        <v>-100</v>
       </c>
       <c r="L274" t="n">
         <v>38.11000000000001</v>
@@ -14253,7 +14275,7 @@
         <v>35.99999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>-63.6363636363634</v>
+        <v>-100</v>
       </c>
       <c r="L275" t="n">
         <v>38.07000000000001</v>
@@ -14304,7 +14326,7 @@
         <v>36.19999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>-38.46153846153813</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L276" t="n">
         <v>38.05</v>
@@ -14355,7 +14377,7 @@
         <v>36.19999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20</v>
       </c>
       <c r="L277" t="n">
         <v>38.03000000000001</v>
@@ -14406,7 +14428,7 @@
         <v>36.29999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20</v>
       </c>
       <c r="L278" t="n">
         <v>38.01000000000001</v>
@@ -14457,7 +14479,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>-38.46153846153813</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L279" t="n">
         <v>37.99</v>
@@ -14508,7 +14530,7 @@
         <v>36.49999999999999</v>
       </c>
       <c r="K280" t="n">
-        <v>-42.85714285714256</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L280" t="n">
         <v>37.96</v>
@@ -14610,7 +14632,7 @@
         <v>36.69999999999997</v>
       </c>
       <c r="K282" t="n">
-        <v>-53.84615384615419</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L282" t="n">
         <v>37.91</v>
@@ -14661,7 +14683,7 @@
         <v>36.69999999999997</v>
       </c>
       <c r="K283" t="n">
-        <v>-50.0000000000003</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L283" t="n">
         <v>37.90000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>36.69999999999997</v>
       </c>
       <c r="K284" t="n">
-        <v>-45.45454545454569</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L284" t="n">
         <v>37.89000000000001</v>
@@ -14763,7 +14785,7 @@
         <v>37.19999999999997</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L285" t="n">
         <v>37.93000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>37.49999999999997</v>
       </c>
       <c r="K286" t="n">
-        <v>-15.78947368421045</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L286" t="n">
         <v>37.92000000000001</v>
@@ -14865,7 +14887,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K287" t="n">
-        <v>-4.761904761904504</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L287" t="n">
         <v>37.93000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L288" t="n">
         <v>37.95</v>
@@ -14967,7 +14989,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K289" t="n">
-        <v>5.263157894736921</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L289" t="n">
         <v>37.98</v>
@@ -15018,7 +15040,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K290" t="n">
-        <v>5.263157894736921</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L290" t="n">
         <v>38.02</v>
@@ -15069,7 +15091,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K291" t="n">
-        <v>11.11111111111129</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L291" t="n">
         <v>38.07000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K292" t="n">
-        <v>11.11111111111129</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L292" t="n">
         <v>38.11</v>
@@ -15171,7 +15193,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K293" t="n">
-        <v>17.64705882352971</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L293" t="n">
         <v>38.15</v>
@@ -15222,7 +15244,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K294" t="n">
-        <v>17.64705882352971</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L294" t="n">
         <v>38.19</v>
@@ -15273,7 +15295,7 @@
         <v>37.89999999999998</v>
       </c>
       <c r="K295" t="n">
-        <v>5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>38.16</v>
@@ -15324,7 +15346,7 @@
         <v>38.09999999999998</v>
       </c>
       <c r="K296" t="n">
-        <v>5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>38.17999999999999</v>
@@ -15375,7 +15397,7 @@
         <v>38.29999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>14.28571428571419</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L297" t="n">
         <v>38.2</v>
@@ -15426,7 +15448,7 @@
         <v>38.49999999999997</v>
       </c>
       <c r="K298" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>38.2</v>
@@ -15477,7 +15499,7 @@
         <v>38.89999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>-4.000000000000068</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L299" t="n">
         <v>38.16</v>
@@ -15528,7 +15550,7 @@
         <v>38.89999999999998</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L300" t="n">
         <v>38.12</v>
@@ -15579,7 +15601,7 @@
         <v>38.89999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>4.34782608695628</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L301" t="n">
         <v>38.08</v>
@@ -15630,7 +15652,7 @@
         <v>38.89999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L302" t="n">
         <v>38.04000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>38.99999999999997</v>
       </c>
       <c r="K303" t="n">
-        <v>-4.34782608695628</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L303" t="n">
         <v>37.99</v>
@@ -15732,7 +15754,7 @@
         <v>39.09999999999997</v>
       </c>
       <c r="K304" t="n">
-        <v>-8.333333333333162</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L304" t="n">
         <v>37.93000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K305" t="n">
-        <v>-8.333333333333162</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L305" t="n">
         <v>37.94000000000001</v>
@@ -15834,7 +15856,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K306" t="n">
-        <v>4.761904761904826</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L306" t="n">
         <v>37.93000000000001</v>
@@ -15885,7 +15907,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K307" t="n">
-        <v>-5.263157894736921</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L307" t="n">
         <v>37.90000000000002</v>
@@ -15936,7 +15958,7 @@
         <v>39.69999999999997</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L308" t="n">
         <v>37.90000000000002</v>
@@ -15987,7 +16009,7 @@
         <v>39.79999999999998</v>
       </c>
       <c r="K309" t="n">
-        <v>-4.761904761904826</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L309" t="n">
         <v>37.93000000000002</v>
@@ -16038,7 +16060,7 @@
         <v>39.79999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>-4.761904761904826</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L310" t="n">
         <v>37.96000000000002</v>
@@ -16089,7 +16111,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L311" t="n">
         <v>38.00000000000001</v>
@@ -16140,7 +16162,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L312" t="n">
         <v>38.04000000000001</v>
@@ -16191,7 +16213,7 @@
         <v>40.09999999999998</v>
       </c>
       <c r="K313" t="n">
-        <v>-8.333333333333432</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L313" t="n">
         <v>38.07000000000001</v>
@@ -16242,7 +16264,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L314" t="n">
         <v>38.13000000000001</v>
@@ -16293,7 +16315,7 @@
         <v>40.89999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>-13.33333333333326</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L315" t="n">
         <v>38.08000000000001</v>
@@ -16344,7 +16366,7 @@
         <v>41.09999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>-26.66666666666674</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L316" t="n">
         <v>38.01000000000001</v>
@@ -16395,7 +16417,7 @@
         <v>41.09999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>-35.71428571428557</v>
+        <v>-57.14285714285693</v>
       </c>
       <c r="L317" t="n">
         <v>37.94</v>
@@ -16446,7 +16468,7 @@
         <v>41.09999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>-30.76923076923075</v>
+        <v>-53.8461538461536</v>
       </c>
       <c r="L318" t="n">
         <v>37.86</v>
@@ -16497,7 +16519,7 @@
         <v>41.09999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>-18.18181818181803</v>
+        <v>-53.8461538461536</v>
       </c>
       <c r="L319" t="n">
         <v>37.79</v>
@@ -16548,7 +16570,7 @@
         <v>41.59999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>3.703703703703742</v>
+        <v>-17.64705882352956</v>
       </c>
       <c r="L320" t="n">
         <v>37.77</v>
@@ -16599,7 +16621,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>-12.49999999999992</v>
+        <v>-36.3636363636364</v>
       </c>
       <c r="L321" t="n">
         <v>37.68999999999999</v>
@@ -16650,7 +16672,7 @@
         <v>42.19999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>-15.1515151515151</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>37.59999999999999</v>
@@ -16701,7 +16723,7 @@
         <v>42.29999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>-9.090909090909168</v>
+        <v>-40.00000000000007</v>
       </c>
       <c r="L323" t="n">
         <v>37.53999999999999</v>
@@ -16752,7 +16774,7 @@
         <v>42.29999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>-6.250000000000055</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L324" t="n">
         <v>37.45999999999999</v>
@@ -16803,7 +16825,7 @@
         <v>42.29999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>-25.92592592592587</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>37.43999999999998</v>
@@ -16854,7 +16876,7 @@
         <v>42.29999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>-25.92592592592587</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>37.43999999999998</v>
@@ -16905,7 +16927,7 @@
         <v>42.29999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>-25.92592592592587</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>37.43999999999998</v>
@@ -16956,7 +16978,7 @@
         <v>42.59999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>-17.24137931034471</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L328" t="n">
         <v>37.46999999999998</v>
@@ -17007,7 +17029,7 @@
         <v>42.9</v>
       </c>
       <c r="K329" t="n">
-        <v>-22.58064516129025</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L329" t="n">
         <v>37.46999999999998</v>
@@ -17058,7 +17080,7 @@
         <v>43</v>
       </c>
       <c r="K330" t="n">
-        <v>-24.99999999999994</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L330" t="n">
         <v>37.40999999999999</v>
@@ -17109,7 +17131,7 @@
         <v>43.09999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-31.24999999999983</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L331" t="n">
         <v>37.38999999999999</v>
@@ -17160,7 +17182,7 @@
         <v>43.2</v>
       </c>
       <c r="K332" t="n">
-        <v>-33.33333333333319</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L332" t="n">
         <v>37.36999999999999</v>
@@ -17211,7 +17233,7 @@
         <v>43.3</v>
       </c>
       <c r="K333" t="n">
-        <v>-24.99999999999978</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L333" t="n">
         <v>37.34999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>43.4</v>
       </c>
       <c r="K334" t="n">
-        <v>-35.4838709677418</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L334" t="n">
         <v>37.32</v>
@@ -17313,7 +17335,7 @@
         <v>43.5</v>
       </c>
       <c r="K335" t="n">
-        <v>-23.07692307692299</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L335" t="n">
         <v>37.28</v>
@@ -17364,7 +17386,7 @@
         <v>43.5</v>
       </c>
       <c r="K336" t="n">
-        <v>-16.66666666666652</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L336" t="n">
         <v>37.24</v>
@@ -17415,7 +17437,7 @@
         <v>43.5</v>
       </c>
       <c r="K337" t="n">
-        <v>-16.66666666666652</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L337" t="n">
         <v>37.2</v>
@@ -17466,7 +17488,7 @@
         <v>43.5</v>
       </c>
       <c r="K338" t="n">
-        <v>-16.66666666666652</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L338" t="n">
         <v>37.13000000000001</v>
@@ -17517,7 +17539,7 @@
         <v>43.5</v>
       </c>
       <c r="K339" t="n">
-        <v>-16.66666666666652</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L339" t="n">
         <v>37.09000000000001</v>
@@ -17568,7 +17590,7 @@
         <v>43.6</v>
       </c>
       <c r="K340" t="n">
-        <v>-49.99999999999964</v>
+        <v>-60</v>
       </c>
       <c r="L340" t="n">
         <v>37.05</v>
@@ -17619,7 +17641,7 @@
         <v>43.6</v>
       </c>
       <c r="K341" t="n">
-        <v>-33.33333333333302</v>
+        <v>-50</v>
       </c>
       <c r="L341" t="n">
         <v>37.02</v>
@@ -17670,7 +17692,7 @@
         <v>44.1</v>
       </c>
       <c r="K342" t="n">
-        <v>5.263157894736882</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L342" t="n">
         <v>37.05</v>
@@ -17721,7 +17743,7 @@
         <v>44.6</v>
       </c>
       <c r="K343" t="n">
-        <v>-21.7391304347825</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L343" t="n">
         <v>37.02</v>
@@ -17772,7 +17794,7 @@
         <v>44.6</v>
       </c>
       <c r="K344" t="n">
-        <v>-21.7391304347825</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L344" t="n">
         <v>36.99999999999999</v>
@@ -17823,7 +17845,7 @@
         <v>45.1</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L345" t="n">
         <v>37.03999999999999</v>
@@ -17874,7 +17896,7 @@
         <v>45.4</v>
       </c>
       <c r="K346" t="n">
-        <v>-9.677419354838591</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L346" t="n">
         <v>37.05</v>
@@ -17925,7 +17947,7 @@
         <v>45.4</v>
       </c>
       <c r="K347" t="n">
-        <v>-9.677419354838591</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L347" t="n">
         <v>37.06</v>
@@ -17976,7 +17998,7 @@
         <v>45.59999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>-13.33333333333352</v>
+        <v>14.28571428571419</v>
       </c>
       <c r="L348" t="n">
         <v>37.09</v>
@@ -18027,7 +18049,7 @@
         <v>45.59999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>-3.703703703703762</v>
+        <v>20</v>
       </c>
       <c r="L349" t="n">
         <v>37.12</v>
@@ -18078,7 +18100,7 @@
         <v>45.7</v>
       </c>
       <c r="K350" t="n">
-        <v>3.703703703703762</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L350" t="n">
         <v>37.17</v>
@@ -18129,7 +18151,7 @@
         <v>46.2</v>
       </c>
       <c r="K351" t="n">
-        <v>22.58064516129017</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L351" t="n">
         <v>37.27</v>
@@ -18180,7 +18202,7 @@
         <v>46.2</v>
       </c>
       <c r="K352" t="n">
-        <v>26.66666666666657</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L352" t="n">
         <v>37.32</v>
@@ -18231,7 +18253,7 @@
         <v>46.2</v>
       </c>
       <c r="K353" t="n">
-        <v>24.13793103448262</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L353" t="n">
         <v>37.42</v>
@@ -18282,7 +18304,7 @@
         <v>46.89999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>2.857142857142903</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L354" t="n">
         <v>37.45</v>
@@ -18333,7 +18355,7 @@
         <v>47.49999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>37.49</v>
@@ -18384,7 +18406,7 @@
         <v>47.49999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>37.56</v>
@@ -18435,7 +18457,7 @@
         <v>47.49999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>20</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L357" t="n">
         <v>37.63</v>
@@ -18486,7 +18508,7 @@
         <v>47.79999999999998</v>
       </c>
       <c r="K358" t="n">
-        <v>11.62790697674423</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L358" t="n">
         <v>37.65</v>
@@ -18537,7 +18559,7 @@
         <v>47.79999999999998</v>
       </c>
       <c r="K359" t="n">
-        <v>11.62790697674423</v>
+        <v>4.761904761904859</v>
       </c>
       <c r="L359" t="n">
         <v>37.67</v>
@@ -18588,7 +18610,7 @@
         <v>48.19999999999998</v>
       </c>
       <c r="K360" t="n">
-        <v>21.7391304347827</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>37.72</v>
@@ -18639,7 +18661,7 @@
         <v>48.29999999999998</v>
       </c>
       <c r="K361" t="n">
-        <v>23.40425531914906</v>
+        <v>4.761904761904859</v>
       </c>
       <c r="L361" t="n">
         <v>37.73</v>
@@ -18690,7 +18712,7 @@
         <v>48.39999999999998</v>
       </c>
       <c r="K362" t="n">
-        <v>16.27906976744199</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L362" t="n">
         <v>37.75000000000001</v>
@@ -18741,7 +18763,7 @@
         <v>48.59999999999998</v>
       </c>
       <c r="K363" t="n">
-        <v>35.00000000000016</v>
+        <v>64.70588235294127</v>
       </c>
       <c r="L363" t="n">
         <v>37.79000000000001</v>
@@ -18792,7 +18814,7 @@
         <v>48.79999999999998</v>
       </c>
       <c r="K364" t="n">
-        <v>28.57142857142881</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L364" t="n">
         <v>37.88000000000001</v>
@@ -18843,7 +18865,7 @@
         <v>48.99999999999997</v>
       </c>
       <c r="K365" t="n">
-        <v>23.07692307692322</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L365" t="n">
         <v>37.93000000000001</v>
@@ -18894,7 +18916,7 @@
         <v>48.99999999999997</v>
       </c>
       <c r="K366" t="n">
-        <v>33.33333333333346</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L366" t="n">
         <v>37.98000000000001</v>
@@ -18945,7 +18967,7 @@
         <v>49.19999999999997</v>
       </c>
       <c r="K367" t="n">
-        <v>26.31578947368443</v>
+        <v>42.85714285714344</v>
       </c>
       <c r="L367" t="n">
         <v>38.01000000000001</v>
@@ -18996,7 +19018,7 @@
         <v>49.29999999999997</v>
       </c>
       <c r="K368" t="n">
-        <v>24.32432432432465</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L368" t="n">
         <v>38.08000000000001</v>
@@ -19047,7 +19069,7 @@
         <v>49.39999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>26.31578947368443</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L369" t="n">
         <v>38.16000000000001</v>
@@ -19098,7 +19120,7 @@
         <v>49.49999999999996</v>
       </c>
       <c r="K370" t="n">
-        <v>21.05263157894769</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L370" t="n">
         <v>38.19000000000001</v>
@@ -19149,7 +19171,7 @@
         <v>49.59999999999995</v>
       </c>
       <c r="K371" t="n">
-        <v>11.76470588235305</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L371" t="n">
         <v>38.22000000000001</v>
@@ -19200,7 +19222,7 @@
         <v>50.29999999999995</v>
       </c>
       <c r="K372" t="n">
-        <v>-7.317073170731724</v>
+        <v>-41.17647058823584</v>
       </c>
       <c r="L372" t="n">
         <v>38.17000000000002</v>
@@ -19251,7 +19273,7 @@
         <v>50.99999999999994</v>
       </c>
       <c r="K373" t="n">
-        <v>8.333333333333396</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L373" t="n">
         <v>38.17000000000002</v>
@@ -19302,7 +19324,7 @@
         <v>51.29999999999994</v>
       </c>
       <c r="K374" t="n">
-        <v>18.18181818181833</v>
+        <v>-13.04347826086962</v>
       </c>
       <c r="L374" t="n">
         <v>38.16000000000001</v>
@@ -19353,7 +19375,7 @@
         <v>51.39999999999994</v>
       </c>
       <c r="K375" t="n">
-        <v>2.56410256410263</v>
+        <v>-16.66666666666682</v>
       </c>
       <c r="L375" t="n">
         <v>38.12000000000001</v>
@@ -19404,7 +19426,7 @@
         <v>51.69999999999994</v>
       </c>
       <c r="K376" t="n">
-        <v>-4.761904761904714</v>
+        <v>-20.00000000000023</v>
       </c>
       <c r="L376" t="n">
         <v>38.05000000000001</v>
@@ -19455,7 +19477,7 @@
         <v>51.89999999999993</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>-15.3846153846158</v>
       </c>
       <c r="L377" t="n">
         <v>38.02000000000001</v>
@@ -19506,7 +19528,7 @@
         <v>51.89999999999993</v>
       </c>
       <c r="K378" t="n">
-        <v>7.317073170731724</v>
+        <v>-20.00000000000023</v>
       </c>
       <c r="L378" t="n">
         <v>37.98000000000001</v>
@@ -19557,7 +19579,7 @@
         <v>51.89999999999993</v>
       </c>
       <c r="K379" t="n">
-        <v>7.317073170731724</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L379" t="n">
         <v>37.93000000000001</v>
@@ -19608,7 +19630,7 @@
         <v>51.99999999999993</v>
       </c>
       <c r="K380" t="n">
-        <v>-5.263157894736803</v>
+        <v>-25</v>
       </c>
       <c r="L380" t="n">
         <v>37.88000000000001</v>
@@ -19659,7 +19681,7 @@
         <v>52.19999999999992</v>
       </c>
       <c r="K381" t="n">
-        <v>-2.564102564102639</v>
+        <v>15.78947368421056</v>
       </c>
       <c r="L381" t="n">
         <v>37.84000000000001</v>
@@ -19710,7 +19732,7 @@
         <v>52.39999999999992</v>
       </c>
       <c r="K382" t="n">
-        <v>-10.00000000000012</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L382" t="n">
         <v>37.85000000000001</v>
@@ -19761,7 +19783,7 @@
         <v>52.59999999999992</v>
       </c>
       <c r="K383" t="n">
-        <v>-10.00000000000012</v>
+        <v>-7.692307692307944</v>
       </c>
       <c r="L383" t="n">
         <v>37.81</v>
@@ -19812,7 +19834,7 @@
         <v>52.89999999999991</v>
       </c>
       <c r="K384" t="n">
-        <v>-12.1951219512197</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L384" t="n">
         <v>37.77</v>
@@ -19863,7 +19885,7 @@
         <v>52.89999999999991</v>
       </c>
       <c r="K385" t="n">
-        <v>-17.94871794871811</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>37.74000000000001</v>
@@ -19914,7 +19936,7 @@
         <v>52.89999999999991</v>
       </c>
       <c r="K386" t="n">
-        <v>-17.94871794871811</v>
+        <v>-20</v>
       </c>
       <c r="L386" t="n">
         <v>37.74000000000001</v>
@@ -19965,7 +19987,7 @@
         <v>52.99999999999991</v>
       </c>
       <c r="K387" t="n">
-        <v>-15.78947368421078</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L387" t="n">
         <v>37.71000000000001</v>
@@ -20016,7 +20038,7 @@
         <v>52.99999999999991</v>
       </c>
       <c r="K388" t="n">
-        <v>-18.91891891891927</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L388" t="n">
         <v>37.68000000000001</v>
@@ -20067,7 +20089,7 @@
         <v>53.09999999999992</v>
       </c>
       <c r="K389" t="n">
-        <v>-24.3243243243246</v>
+        <v>-27.27272727272798</v>
       </c>
       <c r="L389" t="n">
         <v>37.64</v>
@@ -20118,7 +20140,7 @@
         <v>53.19999999999992</v>
       </c>
       <c r="K390" t="n">
-        <v>-24.32432432432474</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L390" t="n">
         <v>37.60000000000001</v>
@@ -20169,7 +20191,7 @@
         <v>53.19999999999992</v>
       </c>
       <c r="K391" t="n">
-        <v>-27.77777777777804</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L391" t="n">
         <v>37.54000000000001</v>
@@ -20220,7 +20242,7 @@
         <v>53.19999999999992</v>
       </c>
       <c r="K392" t="n">
-        <v>-10.34482758620715</v>
+        <v>-100</v>
       </c>
       <c r="L392" t="n">
         <v>37.50000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>53.19999999999992</v>
       </c>
       <c r="K393" t="n">
-        <v>-45.45454545454598</v>
+        <v>-100</v>
       </c>
       <c r="L393" t="n">
         <v>37.44000000000001</v>
@@ -20322,7 +20344,7 @@
         <v>53.29999999999991</v>
       </c>
       <c r="K394" t="n">
-        <v>-40.00000000000043</v>
+        <v>-100</v>
       </c>
       <c r="L394" t="n">
         <v>37.40000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>53.39999999999991</v>
       </c>
       <c r="K395" t="n">
-        <v>-30.0000000000006</v>
+        <v>-60.00000000000171</v>
       </c>
       <c r="L395" t="n">
         <v>37.37000000000001</v>
@@ -20424,7 +20446,7 @@
         <v>53.39999999999991</v>
       </c>
       <c r="K396" t="n">
-        <v>-17.64705882353</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L396" t="n">
         <v>37.34000000000001</v>
@@ -20475,7 +20497,7 @@
         <v>53.89999999999991</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>37.37000000000001</v>
@@ -20526,7 +20548,7 @@
         <v>53.99999999999991</v>
       </c>
       <c r="K398" t="n">
-        <v>4.761904761904891</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L398" t="n">
         <v>37.41000000000001</v>
@@ -20577,7 +20599,7 @@
         <v>54.59999999999991</v>
       </c>
       <c r="K399" t="n">
-        <v>25.92592592592628</v>
+        <v>85.71428571428645</v>
       </c>
       <c r="L399" t="n">
         <v>37.52000000000001</v>
@@ -20628,7 +20650,7 @@
         <v>54.69999999999991</v>
       </c>
       <c r="K400" t="n">
-        <v>25.92592592592595</v>
+        <v>73.33333333333377</v>
       </c>
       <c r="L400" t="n">
         <v>37.63000000000001</v>
@@ -20679,7 +20701,7 @@
         <v>54.79999999999991</v>
       </c>
       <c r="K401" t="n">
-        <v>15.3846153846154</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L401" t="n">
         <v>37.73</v>
@@ -20730,7 +20752,7 @@
         <v>55.09999999999991</v>
       </c>
       <c r="K402" t="n">
-        <v>11.11111111111105</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L402" t="n">
         <v>37.8</v>
@@ -20781,7 +20803,7 @@
         <v>55.09999999999991</v>
       </c>
       <c r="K403" t="n">
-        <v>4.000000000000068</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L403" t="n">
         <v>37.87</v>
@@ -20832,7 +20854,7 @@
         <v>55.19999999999991</v>
       </c>
       <c r="K404" t="n">
-        <v>21.73913043478263</v>
+        <v>44.44444444444458</v>
       </c>
       <c r="L404" t="n">
         <v>37.96000000000001</v>
@@ -20883,7 +20905,7 @@
         <v>55.49999999999991</v>
       </c>
       <c r="K405" t="n">
-        <v>7.692307692307525</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L405" t="n">
         <v>38.01000000000001</v>
@@ -20934,7 +20956,7 @@
         <v>55.49999999999991</v>
       </c>
       <c r="K406" t="n">
-        <v>7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>38.06000000000001</v>
@@ -20985,7 +21007,7 @@
         <v>55.89999999999991</v>
       </c>
       <c r="K407" t="n">
-        <v>-3.448275862069016</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L407" t="n">
         <v>38.02</v>
@@ -21036,7 +21058,7 @@
         <v>56.19999999999992</v>
       </c>
       <c r="K408" t="n">
-        <v>6.250000000000083</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L408" t="n">
         <v>38.00000000000001</v>
@@ -21087,7 +21109,7 @@
         <v>56.29999999999991</v>
       </c>
       <c r="K409" t="n">
-        <v>12.49999999999997</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L409" t="n">
         <v>37.93000000000001</v>
@@ -21138,7 +21160,7 @@
         <v>56.29999999999991</v>
       </c>
       <c r="K410" t="n">
-        <v>16.12903225806455</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L410" t="n">
         <v>37.87000000000001</v>
@@ -21189,7 +21211,7 @@
         <v>56.59999999999991</v>
       </c>
       <c r="K411" t="n">
-        <v>5.882352941176569</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>37.79000000000001</v>
@@ -21240,7 +21262,7 @@
         <v>56.69999999999991</v>
       </c>
       <c r="K412" t="n">
-        <v>2.857142857142903</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L412" t="n">
         <v>37.73</v>
@@ -21291,7 +21313,7 @@
         <v>56.99999999999991</v>
       </c>
       <c r="K413" t="n">
-        <v>10.52631578947384</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L413" t="n">
         <v>37.7</v>
@@ -21342,7 +21364,7 @@
         <v>57.09999999999991</v>
       </c>
       <c r="K414" t="n">
-        <v>15.78947368421039</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>37.67</v>
@@ -21393,7 +21415,7 @@
         <v>57.49999999999991</v>
       </c>
       <c r="K415" t="n">
-        <v>2.439024390243936</v>
+        <v>-20</v>
       </c>
       <c r="L415" t="n">
         <v>37.63</v>
@@ -21444,7 +21466,7 @@
         <v>58.19999999999991</v>
       </c>
       <c r="K416" t="n">
-        <v>16.66666666666674</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L416" t="n">
         <v>37.66</v>
@@ -21495,7 +21517,7 @@
         <v>58.69999999999991</v>
       </c>
       <c r="K417" t="n">
-        <v>-4.166666666666574</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L417" t="n">
         <v>37.68000000000001</v>
@@ -21546,7 +21568,7 @@
         <v>58.69999999999991</v>
       </c>
       <c r="K418" t="n">
-        <v>-6.382978723404191</v>
+        <v>-8.333333333333162</v>
       </c>
       <c r="L418" t="n">
         <v>37.67000000000001</v>
@@ -21597,7 +21619,7 @@
         <v>58.69999999999991</v>
       </c>
       <c r="K419" t="n">
-        <v>-21.95121951219508</v>
+        <v>-8.333333333333162</v>
       </c>
       <c r="L419" t="n">
         <v>37.65000000000001</v>
@@ -21648,7 +21670,7 @@
         <v>59.29999999999991</v>
       </c>
       <c r="K420" t="n">
-        <v>-4.347826086956428</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L420" t="n">
         <v>37.69000000000001</v>
@@ -21699,7 +21721,7 @@
         <v>59.89999999999991</v>
       </c>
       <c r="K421" t="n">
-        <v>-13.72549019607834</v>
+        <v>6.250000000000083</v>
       </c>
       <c r="L421" t="n">
         <v>37.70000000000001</v>
@@ -21750,7 +21772,7 @@
         <v>59.89999999999991</v>
       </c>
       <c r="K422" t="n">
-        <v>-8.333333333333297</v>
+        <v>-3.448275862069016</v>
       </c>
       <c r="L422" t="n">
         <v>37.72000000000001</v>
@@ -21801,7 +21823,7 @@
         <v>59.99999999999991</v>
       </c>
       <c r="K423" t="n">
-        <v>-10.20408163265305</v>
+        <v>-10.34482758620678</v>
       </c>
       <c r="L423" t="n">
         <v>37.70000000000002</v>
@@ -21852,7 +21874,7 @@
         <v>60.59999999999992</v>
       </c>
       <c r="K424" t="n">
-        <v>0</v>
+        <v>22.58064516129035</v>
       </c>
       <c r="L424" t="n">
         <v>37.73000000000002</v>
@@ -21903,7 +21925,7 @@
         <v>60.59999999999992</v>
       </c>
       <c r="K425" t="n">
-        <v>5.882352941176553</v>
+        <v>0</v>
       </c>
       <c r="L425" t="n">
         <v>37.80000000000003</v>
@@ -21954,7 +21976,7 @@
         <v>60.59999999999992</v>
       </c>
       <c r="K426" t="n">
-        <v>5.882352941176553</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L426" t="n">
         <v>37.80000000000003</v>
@@ -22005,7 +22027,7 @@
         <v>60.59999999999992</v>
       </c>
       <c r="K427" t="n">
-        <v>14.89361702127665</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L427" t="n">
         <v>37.85000000000002</v>
@@ -22056,7 +22078,7 @@
         <v>60.69999999999992</v>
       </c>
       <c r="K428" t="n">
-        <v>11.11111111111111</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="L428" t="n">
         <v>37.91000000000002</v>
@@ -22107,7 +22129,7 @@
         <v>60.69999999999992</v>
       </c>
       <c r="K429" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>37.97000000000001</v>
@@ -22158,7 +22180,7 @@
         <v>60.69999999999992</v>
       </c>
       <c r="K430" t="n">
-        <v>9.090909090909207</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L430" t="n">
         <v>37.97000000000001</v>
@@ -22209,7 +22231,7 @@
         <v>61.29999999999992</v>
       </c>
       <c r="K431" t="n">
-        <v>2.127659574468111</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>37.97000000000001</v>
@@ -22260,7 +22282,7 @@
         <v>61.69999999999992</v>
       </c>
       <c r="K432" t="n">
-        <v>12.00000000000001</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L432" t="n">
         <v>38.01000000000001</v>
@@ -22311,7 +22333,7 @@
         <v>61.99999999999991</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L433" t="n">
         <v>38.03000000000002</v>
@@ -22362,7 +22384,7 @@
         <v>61.99999999999991</v>
       </c>
       <c r="K434" t="n">
-        <v>-2.040816326530494</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L434" t="n">
         <v>37.99000000000001</v>
@@ -22413,7 +22435,7 @@
         <v>62.29999999999991</v>
       </c>
       <c r="K435" t="n">
-        <v>12.50000000000002</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L435" t="n">
         <v>37.98</v>
@@ -22464,7 +22486,7 @@
         <v>62.29999999999991</v>
       </c>
       <c r="K436" t="n">
-        <v>-2.439024390243936</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L436" t="n">
         <v>37.97000000000001</v>
@@ -22515,7 +22537,7 @@
         <v>62.39999999999991</v>
       </c>
       <c r="K437" t="n">
-        <v>8.108108108108025</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L437" t="n">
         <v>37.95</v>
@@ -22566,7 +22588,7 @@
         <v>62.69999999999991</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>-30.00000000000018</v>
       </c>
       <c r="L438" t="n">
         <v>37.89</v>
@@ -22617,7 +22639,7 @@
         <v>62.79999999999991</v>
       </c>
       <c r="K439" t="n">
-        <v>2.439024390243936</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L439" t="n">
         <v>37.84</v>
@@ -22668,7 +22690,7 @@
         <v>62.79999999999991</v>
       </c>
       <c r="K440" t="n">
-        <v>-14.28571428571428</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L440" t="n">
         <v>37.79000000000001</v>
@@ -22719,7 +22741,7 @@
         <v>62.79999999999991</v>
       </c>
       <c r="K441" t="n">
-        <v>3.448275862069016</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L441" t="n">
         <v>37.8</v>
@@ -22770,7 +22792,7 @@
         <v>63.29999999999991</v>
       </c>
       <c r="K442" t="n">
-        <v>17.64705882352946</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L442" t="n">
         <v>37.82</v>
@@ -22821,7 +22843,7 @@
         <v>63.29999999999991</v>
       </c>
       <c r="K443" t="n">
-        <v>21.21212121212131</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L443" t="n">
         <v>37.87</v>
@@ -22872,7 +22894,7 @@
         <v>63.29999999999991</v>
       </c>
       <c r="K444" t="n">
-        <v>3.703703703703762</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L444" t="n">
         <v>37.92</v>
@@ -22923,7 +22945,7 @@
         <v>63.89999999999991</v>
       </c>
       <c r="K445" t="n">
-        <v>-15.15151515151517</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L445" t="n">
         <v>37.88</v>
@@ -22974,7 +22996,7 @@
         <v>64.29999999999991</v>
       </c>
       <c r="K446" t="n">
-        <v>-2.702702702702744</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L446" t="n">
         <v>37.88</v>
@@ -23025,7 +23047,7 @@
         <v>64.29999999999991</v>
       </c>
       <c r="K447" t="n">
-        <v>-2.702702702702744</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L447" t="n">
         <v>37.89</v>
@@ -23076,7 +23098,7 @@
         <v>64.6999999999999</v>
       </c>
       <c r="K448" t="n">
-        <v>-15.00000000000009</v>
+        <v>-5.26315789473694</v>
       </c>
       <c r="L448" t="n">
         <v>37.89</v>
@@ -23127,7 +23149,7 @@
         <v>64.7999999999999</v>
       </c>
       <c r="K449" t="n">
-        <v>-12.19512195121957</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>37.89</v>
@@ -23178,7 +23200,7 @@
         <v>64.89999999999989</v>
       </c>
       <c r="K450" t="n">
-        <v>-14.28571428571441</v>
+        <v>-4.761904761904875</v>
       </c>
       <c r="L450" t="n">
         <v>37.88000000000001</v>
@@ -23229,7 +23251,7 @@
         <v>65.59999999999988</v>
       </c>
       <c r="K451" t="n">
-        <v>16.27906976744191</v>
+        <v>4.347826086956333</v>
       </c>
       <c r="L451" t="n">
         <v>37.94000000000001</v>
@@ -23280,7 +23302,7 @@
         <v>65.69999999999987</v>
       </c>
       <c r="K452" t="n">
-        <v>5.000000000000124</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>37.94000000000001</v>
@@ -23331,7 +23353,7 @@
         <v>65.89999999999986</v>
       </c>
       <c r="K453" t="n">
-        <v>17.94871794871807</v>
+        <v>7.692307692307672</v>
       </c>
       <c r="L453" t="n">
         <v>37.96000000000001</v>
@@ -23382,7 +23404,7 @@
         <v>66.09999999999985</v>
       </c>
       <c r="K454" t="n">
-        <v>12.1951219512197</v>
+        <v>27.27272727272809</v>
       </c>
       <c r="L454" t="n">
         <v>37.96000000000001</v>
@@ -23433,7 +23455,7 @@
         <v>66.19999999999985</v>
       </c>
       <c r="K455" t="n">
-        <v>7.692307692307748</v>
+        <v>15.78947368421092</v>
       </c>
       <c r="L455" t="n">
         <v>38.03000000000001</v>
@@ -23484,7 +23506,7 @@
         <v>66.19999999999985</v>
       </c>
       <c r="K456" t="n">
-        <v>7.692307692307748</v>
+        <v>15.78947368421092</v>
       </c>
       <c r="L456" t="n">
         <v>38.06000000000001</v>
@@ -23535,7 +23557,7 @@
         <v>66.29999999999984</v>
       </c>
       <c r="K457" t="n">
-        <v>12.82051282051306</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L457" t="n">
         <v>38.10000000000001</v>
@@ -23586,7 +23608,7 @@
         <v>66.79999999999984</v>
       </c>
       <c r="K458" t="n">
-        <v>7.317073170731763</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L458" t="n">
         <v>38.13</v>
@@ -23637,7 +23659,7 @@
         <v>67.19999999999985</v>
       </c>
       <c r="K459" t="n">
-        <v>13.63636363636371</v>
+        <v>30.43478260869607</v>
       </c>
       <c r="L459" t="n">
         <v>38.19</v>
@@ -23688,7 +23710,7 @@
         <v>67.19999999999985</v>
       </c>
       <c r="K460" t="n">
-        <v>13.63636363636371</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>38.26000000000001</v>
@@ -23739,7 +23761,7 @@
         <v>67.19999999999985</v>
       </c>
       <c r="K461" t="n">
-        <v>13.63636363636371</v>
+        <v>6.666666666666414</v>
       </c>
       <c r="L461" t="n">
         <v>38.26000000000001</v>
@@ -23790,7 +23812,7 @@
         <v>67.19999999999985</v>
       </c>
       <c r="K462" t="n">
-        <v>2.564102564102461</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L462" t="n">
         <v>38.27</v>
@@ -23892,7 +23914,7 @@
         <v>67.49999999999984</v>
       </c>
       <c r="K464" t="n">
-        <v>-4.761904761904907</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L464" t="n">
         <v>38.23</v>
@@ -23943,7 +23965,7 @@
         <v>67.59999999999985</v>
       </c>
       <c r="K465" t="n">
-        <v>13.51351351351374</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L465" t="n">
         <v>38.21000000000001</v>
@@ -23994,7 +24016,7 @@
         <v>67.69999999999985</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>-28.57142857142835</v>
       </c>
       <c r="L466" t="n">
         <v>38.18000000000001</v>
@@ -24045,7 +24067,7 @@
         <v>67.89999999999985</v>
       </c>
       <c r="K467" t="n">
-        <v>5.555555555555731</v>
+        <v>27.27272727272745</v>
       </c>
       <c r="L467" t="n">
         <v>38.16000000000001</v>
@@ -24096,7 +24118,7 @@
         <v>67.89999999999985</v>
       </c>
       <c r="K468" t="n">
-        <v>18.75000000000036</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L468" t="n">
         <v>38.19000000000001</v>
@@ -24147,7 +24169,7 @@
         <v>68.09999999999985</v>
       </c>
       <c r="K469" t="n">
-        <v>21.21212121212138</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L469" t="n">
         <v>38.2</v>
@@ -24198,7 +24220,7 @@
         <v>68.09999999999985</v>
       </c>
       <c r="K470" t="n">
-        <v>25.00000000000022</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L470" t="n">
         <v>38.21</v>
@@ -24300,7 +24322,7 @@
         <v>68.39999999999985</v>
       </c>
       <c r="K472" t="n">
-        <v>11.11111111111111</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L472" t="n">
         <v>38.23</v>
@@ -24351,7 +24373,7 @@
         <v>68.49999999999986</v>
       </c>
       <c r="K473" t="n">
-        <v>7.692307692307819</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L473" t="n">
         <v>38.27</v>
@@ -24402,7 +24424,7 @@
         <v>68.59999999999985</v>
       </c>
       <c r="K474" t="n">
-        <v>11.99999999999989</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L474" t="n">
         <v>38.32000000000001</v>
@@ -24453,7 +24475,7 @@
         <v>68.69999999999985</v>
       </c>
       <c r="K475" t="n">
-        <v>12.00000000000017</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L475" t="n">
         <v>38.37</v>
@@ -24504,7 +24526,7 @@
         <v>68.69999999999985</v>
       </c>
       <c r="K476" t="n">
-        <v>12.00000000000017</v>
+        <v>50</v>
       </c>
       <c r="L476" t="n">
         <v>38.43000000000001</v>
@@ -24555,7 +24577,7 @@
         <v>68.79999999999984</v>
       </c>
       <c r="K477" t="n">
-        <v>12.00000000000017</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L477" t="n">
         <v>38.48</v>
@@ -24606,7 +24628,7 @@
         <v>68.89999999999984</v>
       </c>
       <c r="K478" t="n">
-        <v>33.33333333333356</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L478" t="n">
         <v>38.52000000000001</v>
@@ -24657,7 +24679,7 @@
         <v>68.99999999999983</v>
       </c>
       <c r="K479" t="n">
-        <v>11.11111111111137</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L479" t="n">
         <v>38.53000000000002</v>
@@ -24708,7 +24730,7 @@
         <v>69.19999999999983</v>
       </c>
       <c r="K480" t="n">
-        <v>20.00000000000043</v>
+        <v>40.00000000000114</v>
       </c>
       <c r="L480" t="n">
         <v>38.56000000000002</v>
@@ -24759,7 +24781,7 @@
         <v>69.29999999999983</v>
       </c>
       <c r="K481" t="n">
-        <v>23.80952380952404</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L481" t="n">
         <v>38.61000000000001</v>
@@ -24810,7 +24832,7 @@
         <v>69.29999999999983</v>
       </c>
       <c r="K482" t="n">
-        <v>23.80952380952404</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L482" t="n">
         <v>38.64000000000001</v>
@@ -24861,7 +24883,7 @@
         <v>69.49999999999983</v>
       </c>
       <c r="K483" t="n">
-        <v>18.18181818181821</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L483" t="n">
         <v>38.64000000000001</v>
@@ -24912,7 +24934,7 @@
         <v>69.69999999999982</v>
       </c>
       <c r="K484" t="n">
-        <v>36.36363636363666</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L484" t="n">
         <v>38.67000000000002</v>
@@ -24963,7 +24985,7 @@
         <v>69.69999999999982</v>
       </c>
       <c r="K485" t="n">
-        <v>33.33333333333367</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L485" t="n">
         <v>38.69000000000001</v>
@@ -25014,7 +25036,7 @@
         <v>69.69999999999982</v>
       </c>
       <c r="K486" t="n">
-        <v>40.00000000000043</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L486" t="n">
         <v>38.71000000000002</v>
@@ -25065,7 +25087,7 @@
         <v>69.79999999999981</v>
       </c>
       <c r="K487" t="n">
-        <v>36.84210526315839</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L487" t="n">
         <v>38.73000000000001</v>
@@ -25116,7 +25138,7 @@
         <v>69.9999999999998</v>
       </c>
       <c r="K488" t="n">
-        <v>23.80952380952436</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L488" t="n">
         <v>38.74000000000001</v>
@@ -25167,7 +25189,7 @@
         <v>69.9999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>15.78947368421117</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>38.76000000000001</v>
@@ -25218,7 +25240,7 @@
         <v>69.9999999999998</v>
       </c>
       <c r="K490" t="n">
-        <v>15.78947368421117</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L490" t="n">
         <v>38.76000000000001</v>
@@ -25269,7 +25291,7 @@
         <v>70.19999999999979</v>
       </c>
       <c r="K491" t="n">
-        <v>30.00000000000093</v>
+        <v>11.11111111111173</v>
       </c>
       <c r="L491" t="n">
         <v>38.77</v>
@@ -25320,7 +25342,7 @@
         <v>70.19999999999979</v>
       </c>
       <c r="K492" t="n">
-        <v>22.22222222222288</v>
+        <v>42.85714285714489</v>
       </c>
       <c r="L492" t="n">
         <v>38.78</v>
@@ -25371,7 +25393,7 @@
         <v>70.19999999999979</v>
       </c>
       <c r="K493" t="n">
-        <v>17.64705882352995</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L493" t="n">
         <v>38.81</v>
@@ -25422,7 +25444,7 @@
         <v>70.19999999999979</v>
       </c>
       <c r="K494" t="n">
-        <v>25.00000000000089</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L494" t="n">
         <v>38.81999999999999</v>
@@ -25473,7 +25495,7 @@
         <v>70.19999999999979</v>
       </c>
       <c r="K495" t="n">
-        <v>20.00000000000057</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L495" t="n">
         <v>38.82999999999999</v>
@@ -25524,7 +25546,7 @@
         <v>70.19999999999979</v>
       </c>
       <c r="K496" t="n">
-        <v>20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L496" t="n">
         <v>38.83999999999999</v>
@@ -25575,7 +25597,7 @@
         <v>70.19999999999979</v>
       </c>
       <c r="K497" t="n">
-        <v>14.2857142857145</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L497" t="n">
         <v>38.83999999999999</v>
@@ -25626,7 +25648,7 @@
         <v>70.39999999999978</v>
       </c>
       <c r="K498" t="n">
-        <v>6.666666666667013</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>38.83999999999999</v>
@@ -25677,7 +25699,7 @@
         <v>70.49999999999977</v>
       </c>
       <c r="K499" t="n">
-        <v>20.00000000000057</v>
+        <v>20</v>
       </c>
       <c r="L499" t="n">
         <v>38.84999999999999</v>
@@ -25728,7 +25750,7 @@
         <v>70.79999999999977</v>
       </c>
       <c r="K500" t="n">
-        <v>-12.50000000000067</v>
+        <v>-66.66666666666863</v>
       </c>
       <c r="L500" t="n">
         <v>38.82999999999999</v>
@@ -25779,7 +25801,7 @@
         <v>71.09999999999977</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L501" t="n">
         <v>38.81999999999999</v>
@@ -25830,7 +25852,7 @@
         <v>71.49999999999977</v>
       </c>
       <c r="K502" t="n">
-        <v>-18.18181818181856</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L502" t="n">
         <v>38.77</v>
@@ -25881,7 +25903,7 @@
         <v>71.79999999999978</v>
       </c>
       <c r="K503" t="n">
-        <v>4.34782608695667</v>
+        <v>-12.49999999999978</v>
       </c>
       <c r="L503" t="n">
         <v>38.74999999999999</v>
@@ -25932,7 +25954,7 @@
         <v>71.99999999999979</v>
       </c>
       <c r="K504" t="n">
-        <v>-13.04347826086962</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L504" t="n">
         <v>38.70999999999999</v>
@@ -25983,7 +26005,7 @@
         <v>72.0999999999998</v>
       </c>
       <c r="K505" t="n">
-        <v>-16.66666666666677</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L505" t="n">
         <v>38.66</v>
@@ -26034,7 +26056,7 @@
         <v>72.19999999999979</v>
       </c>
       <c r="K506" t="n">
-        <v>-20.00000000000023</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L506" t="n">
         <v>38.6</v>
@@ -26085,7 +26107,7 @@
         <v>72.39999999999978</v>
       </c>
       <c r="K507" t="n">
-        <v>-30.76923076923106</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L507" t="n">
         <v>38.52</v>
@@ -26136,7 +26158,7 @@
         <v>72.69999999999978</v>
       </c>
       <c r="K508" t="n">
-        <v>-11.11111111111137</v>
+        <v>-18.18181818181809</v>
       </c>
       <c r="L508" t="n">
         <v>38.49</v>
@@ -26187,7 +26209,7 @@
         <v>73.29999999999978</v>
       </c>
       <c r="K509" t="n">
-        <v>-27.27272727272759</v>
+        <v>-27.99999999999995</v>
       </c>
       <c r="L509" t="n">
         <v>38.39</v>
@@ -26238,7 +26260,7 @@
         <v>73.39999999999978</v>
       </c>
       <c r="K510" t="n">
-        <v>-23.52941176470616</v>
+        <v>-39.13043478260844</v>
       </c>
       <c r="L510" t="n">
         <v>38.33</v>
@@ -26289,7 +26311,7 @@
         <v>73.49999999999977</v>
       </c>
       <c r="K511" t="n">
-        <v>-33.33333333333355</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L511" t="n">
         <v>38.23</v>
@@ -26340,7 +26362,7 @@
         <v>73.99999999999977</v>
       </c>
       <c r="K512" t="n">
-        <v>-15.78947368421063</v>
+        <v>-18.18181818181854</v>
       </c>
       <c r="L512" t="n">
         <v>38.22000000000001</v>
@@ -26391,7 +26413,7 @@
         <v>74.29999999999977</v>
       </c>
       <c r="K513" t="n">
-        <v>-21.95121951219519</v>
+        <v>-21.73913043478277</v>
       </c>
       <c r="L513" t="n">
         <v>38.15000000000001</v>
@@ -26442,7 +26464,7 @@
         <v>74.59999999999977</v>
       </c>
       <c r="K514" t="n">
-        <v>-13.63636363636374</v>
+        <v>-4.000000000000102</v>
       </c>
       <c r="L514" t="n">
         <v>38.13000000000001</v>

--- a/BackTest/2019-11-13 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-13 BackTest HDAC.xlsx
@@ -1011,14 +1011,20 @@
         <v>36.70333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>36.4</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1046,14 +1052,20 @@
         <v>36.705</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1081,14 +1093,20 @@
         <v>36.705</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>36.7</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1116,14 +1134,20 @@
         <v>36.70666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>36.3</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1151,14 +1175,20 @@
         <v>36.70833333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>36.8</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1186,14 +1216,20 @@
         <v>36.70333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>36.8</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1264,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1303,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1342,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1381,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1420,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1459,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1498,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1537,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1576,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1615,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1654,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1613,7 +1693,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1648,7 +1732,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1676,18 +1764,16 @@
         <v>36.61333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1717,14 +1803,12 @@
         <v>36.60666666666668</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1764,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
@@ -1805,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
@@ -1840,14 +1924,12 @@
         <v>36.57833333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1881,14 +1963,12 @@
         <v>36.56833333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1922,14 +2002,12 @@
         <v>36.56000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -1963,14 +2041,12 @@
         <v>36.54833333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2004,14 +2080,12 @@
         <v>36.54333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2045,14 +2119,12 @@
         <v>36.53333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2086,14 +2158,12 @@
         <v>36.525</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2127,14 +2197,12 @@
         <v>36.51166666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2168,14 +2236,12 @@
         <v>36.50666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2209,14 +2275,12 @@
         <v>36.49666666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2250,14 +2314,12 @@
         <v>36.49</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2291,14 +2353,12 @@
         <v>36.48166666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2332,14 +2392,12 @@
         <v>36.46833333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2373,14 +2431,12 @@
         <v>36.46166666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2414,14 +2470,12 @@
         <v>36.45666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2455,14 +2509,12 @@
         <v>36.44500000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2496,14 +2548,12 @@
         <v>36.43500000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2537,14 +2587,12 @@
         <v>36.42333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2578,14 +2626,12 @@
         <v>36.41</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2619,14 +2665,12 @@
         <v>36.4</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2660,14 +2704,12 @@
         <v>36.38833333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2701,14 +2743,12 @@
         <v>36.37833333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2742,14 +2782,12 @@
         <v>36.36833333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2783,14 +2821,12 @@
         <v>36.35666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2824,14 +2860,12 @@
         <v>36.34833333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2865,14 +2899,12 @@
         <v>36.34500000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2906,14 +2938,12 @@
         <v>36.33833333333335</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2947,14 +2977,12 @@
         <v>36.33333333333335</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2988,14 +3016,12 @@
         <v>36.33333333333335</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3029,14 +3055,12 @@
         <v>36.33666666666669</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3070,14 +3094,12 @@
         <v>36.33500000000002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3111,14 +3133,12 @@
         <v>36.33833333333335</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3152,14 +3172,12 @@
         <v>36.34166666666669</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3193,14 +3211,12 @@
         <v>36.34166666666669</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3234,14 +3250,12 @@
         <v>36.34500000000002</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3275,14 +3289,12 @@
         <v>36.34833333333335</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3316,14 +3328,12 @@
         <v>36.34666666666669</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3357,14 +3367,12 @@
         <v>36.34333333333336</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3398,14 +3406,12 @@
         <v>36.34166666666669</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3439,14 +3445,12 @@
         <v>36.34333333333336</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3480,14 +3484,12 @@
         <v>36.33500000000002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3521,14 +3523,12 @@
         <v>36.32666666666669</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3562,14 +3562,12 @@
         <v>36.32666666666669</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3603,14 +3601,12 @@
         <v>36.32000000000003</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3644,14 +3640,12 @@
         <v>36.31333333333337</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3685,14 +3679,12 @@
         <v>36.30833333333337</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3726,14 +3718,12 @@
         <v>36.30833333333337</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3767,14 +3757,12 @@
         <v>36.30500000000004</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3808,14 +3796,12 @@
         <v>36.30500000000004</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3849,14 +3835,12 @@
         <v>36.3016666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3890,14 +3874,12 @@
         <v>36.30500000000004</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3931,14 +3913,12 @@
         <v>36.31000000000004</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3972,14 +3952,12 @@
         <v>36.31666666666671</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -4013,14 +3991,12 @@
         <v>36.3216666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -4054,14 +4030,12 @@
         <v>36.32833333333337</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4095,14 +4069,12 @@
         <v>36.33333333333336</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4370,14 +4342,12 @@
         <v>36.35333333333336</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4411,14 +4381,12 @@
         <v>36.3566666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4452,14 +4420,12 @@
         <v>36.35500000000003</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4493,14 +4459,12 @@
         <v>36.35833333333337</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4534,14 +4498,12 @@
         <v>36.36166666666671</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4575,14 +4537,12 @@
         <v>36.36333333333337</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4616,14 +4576,12 @@
         <v>36.36333333333337</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4657,14 +4615,12 @@
         <v>36.37000000000004</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4698,14 +4654,12 @@
         <v>36.37000000000004</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>36.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4739,14 +4693,12 @@
         <v>36.37500000000004</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4780,14 +4732,12 @@
         <v>36.38333333333338</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4821,14 +4771,12 @@
         <v>36.39166666666672</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4862,14 +4810,12 @@
         <v>36.39833333333338</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4903,14 +4849,12 @@
         <v>36.40500000000004</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>36.7</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -7456,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -7526,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -7561,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -13053,13 +12997,17 @@
         <v>37.70166666666667</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="K342" t="n">
+        <v>36.9</v>
+      </c>
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
@@ -13088,14 +13036,22 @@
         <v>37.68666666666666</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K343" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13123,14 +13079,22 @@
         <v>37.67166666666666</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="K344" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13158,14 +13122,22 @@
         <v>37.65666666666666</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="K345" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13193,14 +13165,22 @@
         <v>37.64166666666666</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K346" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13234,8 +13214,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13269,8 +13255,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13304,8 +13296,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13339,8 +13337,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13374,8 +13378,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13409,8 +13419,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13444,8 +13460,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13479,8 +13501,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13514,8 +13542,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13549,8 +13583,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13584,8 +13624,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13619,8 +13665,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +13706,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13689,8 +13747,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13724,8 +13788,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13759,8 +13829,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13794,8 +13870,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +13911,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13864,8 +13952,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13899,8 +13993,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13934,8 +14034,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13969,8 +14075,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14004,8 +14116,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14039,8 +14157,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14074,8 +14198,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14109,8 +14239,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14144,8 +14280,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14179,8 +14321,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14214,8 +14362,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14249,8 +14403,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14284,8 +14444,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14319,8 +14485,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14354,8 +14526,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14389,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14424,8 +14608,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14459,8 +14649,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14494,8 +14690,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14529,8 +14731,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14564,8 +14772,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14599,8 +14813,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14634,8 +14854,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14669,8 +14895,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14704,8 +14936,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14739,8 +14977,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14774,8 +15018,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +15059,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14844,8 +15100,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14879,8 +15141,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14914,8 +15182,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14949,8 +15223,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14984,8 +15264,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15019,8 +15305,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15054,8 +15346,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15089,8 +15387,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15124,8 +15428,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15159,8 +15469,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15194,8 +15510,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15229,8 +15551,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15264,8 +15592,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15299,8 +15633,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15334,8 +15674,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15369,8 +15715,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15404,8 +15756,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15439,8 +15797,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15474,8 +15838,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15509,8 +15879,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15544,8 +15920,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15579,8 +15961,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15614,8 +16002,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15649,8 +16043,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15684,8 +16084,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15719,8 +16125,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15754,8 +16166,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15789,8 +16207,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15824,8 +16248,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15859,8 +16289,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15894,8 +16330,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15929,8 +16371,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15964,8 +16412,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15999,8 +16453,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16034,8 +16494,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16069,8 +16535,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16104,8 +16576,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16139,8 +16617,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16174,8 +16658,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16209,8 +16699,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16244,8 +16740,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16279,8 +16781,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16314,8 +16822,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16349,8 +16863,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16384,8 +16904,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16419,8 +16945,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16454,8 +16986,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16489,8 +17027,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16524,8 +17068,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16559,8 +17109,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16594,8 +17150,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16629,8 +17191,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16664,8 +17232,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16699,8 +17273,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16734,8 +17314,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16769,8 +17355,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16804,8 +17396,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16839,8 +17437,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16874,8 +17478,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16909,8 +17519,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16944,8 +17560,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16979,8 +17601,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17014,8 +17642,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17049,8 +17683,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17084,8 +17724,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17119,8 +17765,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17154,8 +17806,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17189,8 +17847,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17224,8 +17888,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17259,8 +17929,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17294,8 +17970,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17329,8 +18011,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17364,8 +18052,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17399,8 +18093,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17434,8 +18134,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17469,8 +18175,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17504,8 +18216,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17539,8 +18257,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17574,8 +18298,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17609,8 +18339,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17644,8 +18380,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17679,8 +18421,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17714,8 +18462,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17749,8 +18503,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17784,8 +18544,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17819,8 +18585,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17854,8 +18626,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17889,8 +18667,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17924,8 +18708,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17959,8 +18749,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17994,8 +18790,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18026,11 +18828,17 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18064,8 +18872,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18099,8 +18913,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18134,8 +18954,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18169,8 +18995,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18204,8 +19036,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18239,8 +19077,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18274,8 +19118,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18309,8 +19159,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18344,8 +19200,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-13 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-13 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,11 +781,17 @@
         <v>86734.88533875957</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +820,17 @@
         <v>86734.88533875957</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +859,17 @@
         <v>86734.88533875957</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +898,17 @@
         <v>95202.34393875957</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +937,17 @@
         <v>82668.57533875958</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +976,17 @@
         <v>82668.57533875958</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1015,17 @@
         <v>138310.8778387596</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1054,17 @@
         <v>107517.7178387596</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1097,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1134,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1171,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1208,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1245,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1282,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1319,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1356,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1393,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1430,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1467,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1504,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1541,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1578,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1615,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1652,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1689,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1726,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1763,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1800,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1837,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1874,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1911,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1948,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1985,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2022,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2059,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2096,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2133,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2170,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2207,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2244,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2281,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2318,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2355,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2392,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2429,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2466,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2503,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2540,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2577,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2614,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2651,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2688,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2725,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2762,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2799,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2836,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2873,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2910,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2947,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2984,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3021,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3054,17 @@
         <v>221933.6556736696</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3093,17 @@
         <v>221933.6556736696</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3132,17 @@
         <v>221933.6556736696</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3171,17 @@
         <v>221933.6556736696</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3214,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3247,17 @@
         <v>368111.0040736697</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3290,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3327,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3364,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3401,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3438,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3475,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3512,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3549,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3586,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3623,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3660,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3697,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3734,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3771,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3804,17 @@
         <v>-20396.98342633026</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3843,17 @@
         <v>-32796.98342633026</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3882,17 @@
         <v>-32156.98342633026</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>36.2</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3921,17 @@
         <v>-88975.99292633026</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3960,17 @@
         <v>-88960.99292633026</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>36.1</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3999,17 @@
         <v>-132467.7618263303</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4038,17 @@
         <v>-132452.7618263303</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>36.1</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4077,17 @@
         <v>-118686.0834263303</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>36.3</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4116,17 @@
         <v>-118686.0834263303</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4155,17 @@
         <v>-82455.08512633026</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4194,17 @@
         <v>-210647.2855263303</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>36.5</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4233,17 @@
         <v>-210633.2855263303</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>36.1</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4276,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4309,17 @@
         <v>-222670.3301263303</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>36.1</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,15 +4348,17 @@
         <v>-224165.5558263303</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>36.2</v>
       </c>
-      <c r="J107" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,17 +4387,15 @@
         <v>-224150.5558263303</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>36.1</v>
       </c>
-      <c r="J108" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -3994,15 +4426,15 @@
         <v>-253410.4365263303</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4033,12 +4465,12 @@
         <v>-251214.1293263303</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>36.2</v>
       </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,14 +4504,12 @@
         <v>-252112.1293263303</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>36.3</v>
       </c>
-      <c r="J111" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4113,12 +4543,12 @@
         <v>-254773.2582263303</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
         <v>36.2</v>
       </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,14 +4582,12 @@
         <v>-254773.2582263303</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>36.1</v>
       </c>
-      <c r="J113" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,12 +4621,12 @@
         <v>-254758.2582263303</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,12 +4660,12 @@
         <v>-254758.2582263303</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4271,12 +4699,12 @@
         <v>-254758.2582263303</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4310,14 +4738,12 @@
         <v>-289533.5728263303</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>36.3</v>
       </c>
-      <c r="J117" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,14 +4777,12 @@
         <v>-289121.4697263303</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>36.1</v>
       </c>
-      <c r="J118" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4392,14 +4816,12 @@
         <v>-313435.4508263303</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>36.2</v>
       </c>
-      <c r="J119" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,14 +4855,12 @@
         <v>-313030.4508263303</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>36.1</v>
       </c>
-      <c r="J120" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4474,14 +4894,12 @@
         <v>-319030.4508263303</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>36.3</v>
       </c>
-      <c r="J121" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,14 +4933,12 @@
         <v>-319030.4508263303</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>36.1</v>
       </c>
-      <c r="J122" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,14 +4972,12 @@
         <v>-318797.7241263303</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>36.1</v>
       </c>
-      <c r="J123" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,14 +5011,12 @@
         <v>-318797.7241263303</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>36.2</v>
       </c>
-      <c r="J124" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,14 +5050,12 @@
         <v>-316007.7241263303</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>36.2</v>
       </c>
-      <c r="J125" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,14 +5089,12 @@
         <v>-316007.7241263303</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>36.3</v>
       </c>
-      <c r="J126" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,14 +5128,12 @@
         <v>-316007.7241263303</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>36.3</v>
       </c>
-      <c r="J127" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,14 +5167,12 @@
         <v>-280379.0357263303</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>36.3</v>
       </c>
-      <c r="J128" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,14 +5206,12 @@
         <v>-280379.0357263303</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>36.4</v>
       </c>
-      <c r="J129" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4843,14 +5245,12 @@
         <v>-280379.0357263303</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>36.4</v>
       </c>
-      <c r="J130" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,14 +5284,12 @@
         <v>-258771.4736263303</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>36.4</v>
       </c>
-      <c r="J131" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4925,14 +5323,12 @@
         <v>-264610.2567263303</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>36.6</v>
       </c>
-      <c r="J132" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,12 +5362,12 @@
         <v>-264610.2567263303</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,12 +5401,12 @@
         <v>-260283.5838263303</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,12 +5440,12 @@
         <v>-260283.5838263303</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,12 +5479,12 @@
         <v>-270119.4416263303</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,12 +5518,12 @@
         <v>-270119.4416263303</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,12 +5557,12 @@
         <v>-264811.0041263303</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,12 +5596,12 @@
         <v>-266811.0041263303</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,12 +5635,12 @@
         <v>-299527.1788263302</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,12 +5674,12 @@
         <v>-299527.1788263302</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,14 +5713,12 @@
         <v>-295758.0515263302</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>36.3</v>
       </c>
-      <c r="J142" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5358,14 +5752,12 @@
         <v>-296442.6068263302</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>36.5</v>
       </c>
-      <c r="J143" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5399,14 +5791,12 @@
         <v>-296442.6068263302</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>36.3</v>
       </c>
-      <c r="J144" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5440,14 +5830,12 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>36.3</v>
       </c>
-      <c r="J145" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5481,14 +5869,12 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>36.4</v>
       </c>
-      <c r="J146" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5522,12 +5908,12 @@
         <v>-275003.5333263302</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,12 +5947,12 @@
         <v>-279441.1293263303</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,12 +5986,12 @@
         <v>-310617.5849263303</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,12 +6025,12 @@
         <v>-310595.5849263303</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
         <v>36.2</v>
       </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5678,12 +6064,12 @@
         <v>-310595.5849263303</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5717,12 +6103,12 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,12 +6142,12 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5795,12 +6181,12 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,9 +6223,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,9 +6260,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,9 +6297,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5954,9 +6334,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,9 +6371,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,12 +6405,12 @@
         <v>-357898.6361263303</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6068,14 +6444,12 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>36.3</v>
       </c>
-      <c r="J161" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6109,14 +6483,12 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>36.4</v>
       </c>
-      <c r="J162" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,12 +6522,12 @@
         <v>-305815.8917263303</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,14 +6561,12 @@
         <v>-305271.0251263303</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>36.3</v>
       </c>
-      <c r="J164" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,12 +6600,12 @@
         <v>-310579.4626263303</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6269,12 +6639,12 @@
         <v>-310564.4626263303</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,12 +6678,12 @@
         <v>-342818.9779263303</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,12 +6717,12 @@
         <v>-329952.2362263303</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>36.2</v>
       </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6386,12 +6756,12 @@
         <v>-329937.2362263303</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,12 +6795,12 @@
         <v>-339937.2362263303</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,12 +6834,12 @@
         <v>-339293.1875263303</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,12 +6873,12 @@
         <v>-339278.1875263303</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6542,12 +6912,12 @@
         <v>-339278.1875263303</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,12 +6951,12 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,12 +6990,12 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6659,12 +7029,12 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6698,12 +7068,12 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,12 +7107,12 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>36.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6779,9 +7149,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6818,9 +7186,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6857,9 +7223,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6896,9 +7260,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6935,9 +7297,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6974,9 +7334,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,9 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7052,9 +7408,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7091,9 +7445,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7130,9 +7482,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7169,9 +7519,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7208,9 +7556,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7247,9 +7593,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,9 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,9 +7667,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,9 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7403,9 +7741,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7442,9 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7481,9 +7815,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,9 +7852,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7559,9 +7889,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7598,9 +7926,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,9 +7963,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7676,9 +8000,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7715,9 +8037,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7754,9 +8074,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,9 +8111,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7832,9 +8148,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7871,9 +8185,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7910,9 +8222,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7949,9 +8259,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7988,9 +8296,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8027,9 +8333,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8066,9 +8370,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8105,9 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,9 +8444,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,9 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8222,9 +8518,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8261,9 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8300,9 +8592,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8339,9 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,9 +8666,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8417,9 +8703,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8456,9 +8740,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8495,9 +8777,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8534,9 +8814,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8573,9 +8851,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,9 +8888,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8651,9 +8925,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8690,9 +8962,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8729,9 +8999,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8768,9 +9036,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,9 +9073,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8846,9 +9110,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8885,9 +9147,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8924,9 +9184,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8963,9 +9221,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,9 +9258,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,9 +9295,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9080,9 +9332,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9119,9 +9369,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9158,9 +9406,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,23 +9440,19 @@
         <v>3513924.46238291</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1.086160220994475</v>
-      </c>
-      <c r="M241" t="n">
-        <v>1.024930747922438</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9239,7 +9481,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9272,7 +9518,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9305,7 +9555,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9338,7 +9592,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9371,7 +9629,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9404,7 +9666,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9433,11 +9699,15 @@
         <v>3040114.02498291</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +9736,15 @@
         <v>3040114.02498291</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9503,7 +9777,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9536,7 +9814,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9569,7 +9851,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9598,11 +9884,15 @@
         <v>3074400.63411772</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9631,11 +9921,15 @@
         <v>3074400.63411772</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9664,11 +9958,15 @@
         <v>3110724.97044805</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9697,11 +9995,15 @@
         <v>3803880.49338627</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9730,11 +10032,15 @@
         <v>3494110.61228627</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9767,7 +10073,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9796,14 +10106,16 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
@@ -9829,7 +10141,7 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9862,7 +10174,7 @@
         <v>2866849.87948627</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9895,7 +10207,7 @@
         <v>2687385.99168627</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9928,7 +10240,7 @@
         <v>2720599.09138627</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9961,7 +10273,7 @@
         <v>2744462.42288627</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9994,7 +10306,7 @@
         <v>2743677.38891581</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10027,7 +10339,7 @@
         <v>2859320.00961581</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10060,7 +10372,7 @@
         <v>2889041.00961581</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10093,7 +10405,7 @@
         <v>2849142.46501581</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10126,7 +10438,7 @@
         <v>2851624.75831581</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10159,7 +10471,7 @@
         <v>2889885.92301581</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10192,7 +10504,7 @@
         <v>2889885.92301581</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10225,7 +10537,7 @@
         <v>2895334.38231581</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10258,7 +10570,7 @@
         <v>3171838.96241581</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10291,7 +10603,7 @@
         <v>3171838.96241581</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10324,7 +10636,7 @@
         <v>3269276.0272592</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10357,7 +10669,7 @@
         <v>3316977.5402592</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10390,7 +10702,7 @@
         <v>3304964.5402592</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10423,7 +10735,7 @@
         <v>3244645.1862592</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10456,7 +10768,7 @@
         <v>3244645.1862592</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10489,7 +10801,7 @@
         <v>3031983.1520592</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10522,7 +10834,7 @@
         <v>3065670.6436592</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10555,7 +10867,7 @@
         <v>3065670.6436592</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10588,7 +10900,7 @@
         <v>3131048.7941592</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10621,7 +10933,7 @@
         <v>3431563.9911592</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10654,7 +10966,7 @@
         <v>3431563.9911592</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10687,7 +10999,7 @@
         <v>3404673.7472592</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10720,7 +11032,7 @@
         <v>3437721.2914592</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10951,7 +11263,7 @@
         <v>3402169.3582592</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10984,7 +11296,7 @@
         <v>3520606.163759199</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11017,7 +11329,7 @@
         <v>3413990.808859199</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11050,7 +11362,7 @@
         <v>3413990.808859199</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11083,7 +11395,7 @@
         <v>3362532.258759199</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11116,7 +11428,7 @@
         <v>3362532.258759199</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11149,7 +11461,7 @@
         <v>3299437.784459199</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11182,7 +11494,7 @@
         <v>3183283.483859199</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11215,7 +11527,7 @@
         <v>3024500.006659199</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11248,7 +11560,7 @@
         <v>3055619.098459199</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11281,7 +11593,7 @@
         <v>3055619.098459199</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11314,7 +11626,7 @@
         <v>3055619.098459199</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11347,7 +11659,7 @@
         <v>3055619.098459199</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11380,7 +11692,7 @@
         <v>3057560.282959199</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11479,7 +11791,7 @@
         <v>3139109.647859199</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11578,7 +11890,7 @@
         <v>3209918.017559199</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11611,7 +11923,7 @@
         <v>3209918.017559199</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11644,7 +11956,7 @@
         <v>3209918.017559199</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11677,7 +11989,7 @@
         <v>3188981.028859199</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11710,7 +12022,7 @@
         <v>3167364.145759199</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11941,7 +12253,7 @@
         <v>3234383.016959199</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11974,7 +12286,7 @@
         <v>3234383.016959199</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12205,7 +12517,7 @@
         <v>3116939.361359199</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12238,7 +12550,7 @@
         <v>3116939.361359199</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12271,7 +12583,7 @@
         <v>3116939.361359199</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12304,7 +12616,7 @@
         <v>3116979.361359199</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12337,7 +12649,7 @@
         <v>3116979.361359199</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12370,7 +12682,7 @@
         <v>3116171.989059199</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13063,7 +13375,7 @@
         <v>2717786.816059198</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13096,7 +13408,7 @@
         <v>2717786.816059198</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -18871,7 +19183,7 @@
         <v>3157972.665370227</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18904,7 +19216,7 @@
         <v>3157972.665370227</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18937,7 +19249,7 @@
         <v>3177853.770570227</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18970,7 +19282,7 @@
         <v>3151104.013170227</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19003,7 +19315,7 @@
         <v>3121060.227570227</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19036,7 +19348,7 @@
         <v>3256804.667870227</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19069,7 +19381,7 @@
         <v>3277609.547370227</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19135,7 +19447,7 @@
         <v>3267630.285570227</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19300,7 +19612,7 @@
         <v>3285984.635770227</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19333,7 +19645,7 @@
         <v>3285984.635770227</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19366,7 +19678,7 @@
         <v>3285984.635770227</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19399,7 +19711,7 @@
         <v>3286094.062470227</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19432,7 +19744,7 @@
         <v>3286094.062470227</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19465,7 +19777,7 @@
         <v>3286094.062470227</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19498,7 +19810,7 @@
         <v>3286094.062470227</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19531,7 +19843,7 @@
         <v>3286094.062470227</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19564,7 +19876,7 @@
         <v>3286094.062470227</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19597,7 +19909,7 @@
         <v>3286094.062470227</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19630,7 +19942,7 @@
         <v>3241789.343270227</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19663,7 +19975,7 @@
         <v>3241804.343270227</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19696,7 +20008,7 @@
         <v>3135827.636670227</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19729,7 +20041,7 @@
         <v>3216806.943570227</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19762,7 +20074,7 @@
         <v>3208991.410370227</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19795,7 +20107,7 @@
         <v>3209006.410370227</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19806,6 +20118,6 @@
       <c r="M562" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-13 BackTest HDAC.xlsx
@@ -4180,10 +4180,14 @@
         <v>-254758.2582263303</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>36.3</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4213,11 +4217,19 @@
         <v>-254758.2582263303</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4258,19 @@
         <v>-289533.5728263303</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4299,19 @@
         <v>-289121.4697263303</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4340,19 @@
         <v>-313435.4508263303</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4351,9 +4387,13 @@
         <v>36.1</v>
       </c>
       <c r="J120" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>36.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4388,11 +4428,11 @@
         <v>36.3</v>
       </c>
       <c r="J121" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4429,11 +4469,11 @@
         <v>36.1</v>
       </c>
       <c r="J122" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4470,9 +4510,13 @@
         <v>36.1</v>
       </c>
       <c r="J123" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+        <v>36.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4507,11 +4551,11 @@
         <v>36.2</v>
       </c>
       <c r="J124" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4548,11 +4592,11 @@
         <v>36.2</v>
       </c>
       <c r="J125" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4591,7 +4635,11 @@
       <c r="J126" t="n">
         <v>36.3</v>
       </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4630,7 +4678,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4671,7 +4719,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4708,9 +4756,13 @@
         <v>36.4</v>
       </c>
       <c r="J129" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+        <v>36.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4739,15 +4791,17 @@
         <v>-280379.0357263303</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>36.4</v>
+      </c>
       <c r="J130" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4782,11 +4836,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4820,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4853,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4886,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4952,8 +5030,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4985,8 +5069,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5018,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5051,8 +5147,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5084,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5114,15 +5222,17 @@
         <v>-299527.1788263302</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>36.3</v>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5151,17 +5261,15 @@
         <v>-295758.0515263302</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>36.3</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -5231,11 +5339,9 @@
         <v>-296442.6068263302</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>36.3</v>
       </c>
@@ -5272,11 +5378,9 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>36.3</v>
       </c>
@@ -5313,11 +5417,9 @@
         <v>-275017.5333263302</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>36.3</v>
       </c>
@@ -5354,11 +5456,9 @@
         <v>-275003.5333263302</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>36.3</v>
       </c>
@@ -5395,11 +5495,9 @@
         <v>-279441.1293263303</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>36.3</v>
       </c>
@@ -5436,11 +5534,9 @@
         <v>-310617.5849263303</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>36.3</v>
       </c>
@@ -5518,11 +5614,9 @@
         <v>-310595.5849263303</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>36.3</v>
       </c>
@@ -5559,11 +5653,9 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>36.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>36.3</v>
       </c>
@@ -5600,11 +5692,9 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>36.3</v>
       </c>
@@ -5641,11 +5731,9 @@
         <v>-301883.5069263303</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>36.3</v>
       </c>
@@ -5799,11 +5887,9 @@
         <v>-310451.0424263303</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>36.3</v>
       </c>
@@ -5879,11 +5965,9 @@
         <v>-357898.6361263303</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>36.3</v>
       </c>
@@ -5920,11 +6004,9 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>36.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>36.3</v>
       </c>
@@ -5961,11 +6043,9 @@
         <v>-295815.8917263303</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>36.3</v>
       </c>
@@ -6002,11 +6082,9 @@
         <v>-305815.8917263303</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>36.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>36.3</v>
       </c>
@@ -6453,11 +6531,9 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>36.3</v>
       </c>
@@ -6494,11 +6570,9 @@
         <v>-269251.0253263303</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>36.3</v>
       </c>
@@ -7237,2003 +7311,2363 @@
         <v>934510.5298736698</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>36.3</v>
       </c>
       <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>38</v>
+      </c>
+      <c r="C195" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>38</v>
+      </c>
+      <c r="E195" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>219492.8188</v>
+      </c>
+      <c r="G195" t="n">
+        <v>715017.7110736698</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>38</v>
+      </c>
+      <c r="C196" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>38</v>
+      </c>
+      <c r="F196" t="n">
+        <v>49717.853</v>
+      </c>
+      <c r="G196" t="n">
+        <v>764735.5640736698</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6484.1383</v>
+      </c>
+      <c r="G197" t="n">
+        <v>758251.4257736698</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>27409.2318</v>
+      </c>
+      <c r="G198" t="n">
+        <v>785660.6575736698</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>9103.5468</v>
+      </c>
+      <c r="G199" t="n">
+        <v>785660.6575736698</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>38</v>
+      </c>
+      <c r="D200" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>38</v>
+      </c>
+      <c r="F200" t="n">
+        <v>27348.4578</v>
+      </c>
+      <c r="G200" t="n">
+        <v>758312.1997736698</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C201" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D201" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>44720.324</v>
+      </c>
+      <c r="G201" t="n">
+        <v>713591.8757736698</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2604.658</v>
+      </c>
+      <c r="G202" t="n">
+        <v>716196.5337736699</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>60669.3033</v>
+      </c>
+      <c r="G203" t="n">
+        <v>655527.2304736698</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C204" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E204" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>375.3429</v>
+      </c>
+      <c r="G204" t="n">
+        <v>655527.2304736698</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C205" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E205" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>42276.4564</v>
+      </c>
+      <c r="G205" t="n">
+        <v>655527.2304736698</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21285.4346</v>
+      </c>
+      <c r="G206" t="n">
+        <v>634241.7958736698</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>45023.3241</v>
+      </c>
+      <c r="G207" t="n">
+        <v>679265.1199736698</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C208" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>17349.9453</v>
+      </c>
+      <c r="G208" t="n">
+        <v>679265.1199736698</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C209" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D209" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E209" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>22263.223</v>
+      </c>
+      <c r="G209" t="n">
+        <v>701528.3429736698</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C210" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D210" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E210" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>18873.3458</v>
+      </c>
+      <c r="G210" t="n">
+        <v>720401.6887736698</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>88</v>
+      </c>
+      <c r="G211" t="n">
+        <v>720313.6887736698</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C212" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E212" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F212" t="n">
+        <v>72868.1741</v>
+      </c>
+      <c r="G212" t="n">
+        <v>793181.8628736697</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>36324.4127</v>
+      </c>
+      <c r="G213" t="n">
+        <v>793181.8628736697</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5117.0363</v>
+      </c>
+      <c r="G214" t="n">
+        <v>788064.8265736697</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C215" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E215" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F215" t="n">
+        <v>37534.5658</v>
+      </c>
+      <c r="G215" t="n">
+        <v>788064.8265736697</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C216" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E216" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>52659</v>
+      </c>
+      <c r="G216" t="n">
+        <v>735405.8265736697</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C217" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E217" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>28512.6499</v>
+      </c>
+      <c r="G217" t="n">
+        <v>735405.8265736697</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C218" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>61830.3932</v>
+      </c>
+      <c r="G218" t="n">
+        <v>797236.2197736697</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C219" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10852.7637</v>
+      </c>
+      <c r="G219" t="n">
+        <v>797236.2197736697</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E220" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F220" t="n">
+        <v>35</v>
+      </c>
+      <c r="G220" t="n">
+        <v>797271.2197736697</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C221" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D221" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E221" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F221" t="n">
+        <v>38873.38032612</v>
+      </c>
+      <c r="G221" t="n">
+        <v>836144.6000997897</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D222" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E222" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F222" t="n">
+        <v>80226.8489</v>
+      </c>
+      <c r="G222" t="n">
+        <v>836144.6000997897</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C223" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F223" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>886144.6000997897</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D224" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2449.8663</v>
+      </c>
+      <c r="G224" t="n">
+        <v>883694.7337997897</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E225" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>757129.8423</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1640824.57609979</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C226" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E226" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>160920.42931688</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1640824.57609979</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C227" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D227" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E227" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F227" t="n">
+        <v>34606.2293</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1640824.57609979</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C228" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>153638.9724</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1487185.60369979</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E229" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>212618.97731038</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1699804.58101017</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C230" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F230" t="n">
+        <v>288.1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1700092.68101017</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E231" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>662890.89077274</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2362983.57178291</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>39</v>
+      </c>
+      <c r="C232" t="n">
+        <v>39</v>
+      </c>
+      <c r="D232" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E232" t="n">
+        <v>39</v>
+      </c>
+      <c r="F232" t="n">
+        <v>618877.7408</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2981861.31258291</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>39</v>
+      </c>
+      <c r="C233" t="n">
+        <v>39</v>
+      </c>
+      <c r="D233" t="n">
+        <v>39</v>
+      </c>
+      <c r="E233" t="n">
+        <v>39</v>
+      </c>
+      <c r="F233" t="n">
+        <v>104453.806</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2981861.31258291</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C234" t="n">
+        <v>39</v>
+      </c>
+      <c r="D234" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>39</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6180.4116</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2981861.31258291</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>39</v>
+      </c>
+      <c r="C235" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>39</v>
+      </c>
+      <c r="F235" t="n">
+        <v>45786.8997</v>
+      </c>
+      <c r="G235" t="n">
+        <v>3027648.21228291</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E236" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>143747.5305</v>
+      </c>
+      <c r="G236" t="n">
+        <v>3171395.74278291</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E237" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>67509.2157</v>
+      </c>
+      <c r="G237" t="n">
+        <v>3103886.52708291</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E238" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>442585.4744</v>
+      </c>
+      <c r="G238" t="n">
+        <v>3103886.52708291</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>191813.8609</v>
+      </c>
+      <c r="G239" t="n">
+        <v>3103886.52708291</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D240" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E240" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>54922.1481</v>
+      </c>
+      <c r="G240" t="n">
+        <v>3158808.67518291</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C241" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>355115.7872</v>
+      </c>
+      <c r="G241" t="n">
+        <v>3513924.46238291</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C242" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D242" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E242" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F242" t="n">
+        <v>337285.7975</v>
+      </c>
+      <c r="G242" t="n">
+        <v>3176638.66488291</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C243" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E243" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F243" t="n">
+        <v>299096.021</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2877542.64388291</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E244" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F244" t="n">
+        <v>31535.9288</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2909078.57268291</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C245" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D245" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E245" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F245" t="n">
+        <v>18141</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2909078.57268291</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D246" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E246" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>131035.4523</v>
+      </c>
+      <c r="G246" t="n">
+        <v>3040114.02498291</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C247" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D247" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E247" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F247" t="n">
+        <v>122561.0639</v>
+      </c>
+      <c r="G247" t="n">
+        <v>3040114.02498291</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C248" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D248" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E248" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F248" t="n">
+        <v>24228.1709</v>
+      </c>
+      <c r="G248" t="n">
+        <v>3040114.02498291</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C249" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D249" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E249" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>58097.2927</v>
+      </c>
+      <c r="G249" t="n">
+        <v>3040114.02498291</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C250" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D250" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E250" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F250" t="n">
+        <v>224911.16848962</v>
+      </c>
+      <c r="G250" t="n">
+        <v>3040114.02498291</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C251" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D251" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E251" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>152525.08217766</v>
+      </c>
+      <c r="G251" t="n">
+        <v>2887588.94280525</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C252" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E252" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F252" t="n">
+        <v>98077.08442025</v>
+      </c>
+      <c r="G252" t="n">
+        <v>2887588.94280525</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C253" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E253" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F253" t="n">
+        <v>186811.69131247</v>
+      </c>
+      <c r="G253" t="n">
+        <v>3074400.63411772</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D254" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E254" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F254" t="n">
+        <v>9791.0318893</v>
+      </c>
+      <c r="G254" t="n">
+        <v>3074400.63411772</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1.050096418732783</v>
-      </c>
-      <c r="M194" t="n">
+      <c r="L254" t="n">
+        <v>1.083154269972452</v>
+      </c>
+      <c r="M254" t="n">
         <v>1.024930747922438</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>38</v>
-      </c>
-      <c r="C195" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>38</v>
-      </c>
-      <c r="E195" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>219492.8188</v>
-      </c>
-      <c r="G195" t="n">
-        <v>715017.7110736698</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>38</v>
-      </c>
-      <c r="C196" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D196" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E196" t="n">
-        <v>38</v>
-      </c>
-      <c r="F196" t="n">
-        <v>49717.853</v>
-      </c>
-      <c r="G196" t="n">
-        <v>764735.5640736698</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C197" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E197" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>6484.1383</v>
-      </c>
-      <c r="G197" t="n">
-        <v>758251.4257736698</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="C198" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D198" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E198" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="F198" t="n">
-        <v>27409.2318</v>
-      </c>
-      <c r="G198" t="n">
-        <v>785660.6575736698</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="C199" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D199" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E199" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="F199" t="n">
-        <v>9103.5468</v>
-      </c>
-      <c r="G199" t="n">
-        <v>785660.6575736698</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>38</v>
-      </c>
-      <c r="D200" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="E200" t="n">
-        <v>38</v>
-      </c>
-      <c r="F200" t="n">
-        <v>27348.4578</v>
-      </c>
-      <c r="G200" t="n">
-        <v>758312.1997736698</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C201" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D201" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E201" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F201" t="n">
-        <v>44720.324</v>
-      </c>
-      <c r="G201" t="n">
-        <v>713591.8757736698</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D202" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E202" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F202" t="n">
-        <v>2604.658</v>
-      </c>
-      <c r="G202" t="n">
-        <v>716196.5337736699</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C203" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D203" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E203" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F203" t="n">
-        <v>60669.3033</v>
-      </c>
-      <c r="G203" t="n">
-        <v>655527.2304736698</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C204" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D204" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E204" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F204" t="n">
-        <v>375.3429</v>
-      </c>
-      <c r="G204" t="n">
-        <v>655527.2304736698</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C205" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D205" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E205" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>42276.4564</v>
-      </c>
-      <c r="G205" t="n">
-        <v>655527.2304736698</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C206" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D206" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E206" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F206" t="n">
-        <v>21285.4346</v>
-      </c>
-      <c r="G206" t="n">
-        <v>634241.7958736698</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C207" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D207" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E207" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F207" t="n">
-        <v>45023.3241</v>
-      </c>
-      <c r="G207" t="n">
-        <v>679265.1199736698</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C208" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D208" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E208" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F208" t="n">
-        <v>17349.9453</v>
-      </c>
-      <c r="G208" t="n">
-        <v>679265.1199736698</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C209" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="D209" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E209" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F209" t="n">
-        <v>22263.223</v>
-      </c>
-      <c r="G209" t="n">
-        <v>701528.3429736698</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C210" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D210" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E210" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F210" t="n">
-        <v>18873.3458</v>
-      </c>
-      <c r="G210" t="n">
-        <v>720401.6887736698</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C211" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D211" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E211" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F211" t="n">
-        <v>88</v>
-      </c>
-      <c r="G211" t="n">
-        <v>720313.6887736698</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D212" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E212" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>72868.1741</v>
-      </c>
-      <c r="G212" t="n">
-        <v>793181.8628736697</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C213" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D213" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E213" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F213" t="n">
-        <v>36324.4127</v>
-      </c>
-      <c r="G213" t="n">
-        <v>793181.8628736697</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C214" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D214" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E214" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5117.0363</v>
-      </c>
-      <c r="G214" t="n">
-        <v>788064.8265736697</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C215" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D215" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E215" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F215" t="n">
-        <v>37534.5658</v>
-      </c>
-      <c r="G215" t="n">
-        <v>788064.8265736697</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C216" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D216" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="E216" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F216" t="n">
-        <v>52659</v>
-      </c>
-      <c r="G216" t="n">
-        <v>735405.8265736697</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C217" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="D217" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E217" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F217" t="n">
-        <v>28512.6499</v>
-      </c>
-      <c r="G217" t="n">
-        <v>735405.8265736697</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C218" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D218" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E218" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="F218" t="n">
-        <v>61830.3932</v>
-      </c>
-      <c r="G218" t="n">
-        <v>797236.2197736697</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C219" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D219" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E219" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F219" t="n">
-        <v>10852.7637</v>
-      </c>
-      <c r="G219" t="n">
-        <v>797236.2197736697</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="C220" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D220" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E220" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F220" t="n">
-        <v>35</v>
-      </c>
-      <c r="G220" t="n">
-        <v>797271.2197736697</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="C221" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D221" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E221" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="F221" t="n">
-        <v>38873.38032612</v>
-      </c>
-      <c r="G221" t="n">
-        <v>836144.6000997897</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C222" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D222" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E222" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F222" t="n">
-        <v>80226.8489</v>
-      </c>
-      <c r="G222" t="n">
-        <v>836144.6000997897</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="D223" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E223" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="F223" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G223" t="n">
-        <v>886144.6000997897</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="C224" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D224" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="E224" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F224" t="n">
-        <v>2449.8663</v>
-      </c>
-      <c r="G224" t="n">
-        <v>883694.7337997897</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D225" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E225" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>757129.8423</v>
-      </c>
-      <c r="G225" t="n">
-        <v>1640824.57609979</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C226" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D226" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E226" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F226" t="n">
-        <v>160920.42931688</v>
-      </c>
-      <c r="G226" t="n">
-        <v>1640824.57609979</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C227" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D227" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E227" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F227" t="n">
-        <v>34606.2293</v>
-      </c>
-      <c r="G227" t="n">
-        <v>1640824.57609979</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="C228" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="E228" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F228" t="n">
-        <v>153638.9724</v>
-      </c>
-      <c r="G228" t="n">
-        <v>1487185.60369979</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="C229" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="D229" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E229" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="F229" t="n">
-        <v>212618.97731038</v>
-      </c>
-      <c r="G229" t="n">
-        <v>1699804.58101017</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="C230" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="D230" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="F230" t="n">
-        <v>288.1</v>
-      </c>
-      <c r="G230" t="n">
-        <v>1700092.68101017</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="D231" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="E231" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>662890.89077274</v>
-      </c>
-      <c r="G231" t="n">
-        <v>2362983.57178291</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>39</v>
-      </c>
-      <c r="C232" t="n">
-        <v>39</v>
-      </c>
-      <c r="D232" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E232" t="n">
-        <v>39</v>
-      </c>
-      <c r="F232" t="n">
-        <v>618877.7408</v>
-      </c>
-      <c r="G232" t="n">
-        <v>2981861.31258291</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>39</v>
-      </c>
-      <c r="C233" t="n">
-        <v>39</v>
-      </c>
-      <c r="D233" t="n">
-        <v>39</v>
-      </c>
-      <c r="E233" t="n">
-        <v>39</v>
-      </c>
-      <c r="F233" t="n">
-        <v>104453.806</v>
-      </c>
-      <c r="G233" t="n">
-        <v>2981861.31258291</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C234" t="n">
-        <v>39</v>
-      </c>
-      <c r="D234" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E234" t="n">
-        <v>39</v>
-      </c>
-      <c r="F234" t="n">
-        <v>6180.4116</v>
-      </c>
-      <c r="G234" t="n">
-        <v>2981861.31258291</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>39</v>
-      </c>
-      <c r="C235" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D235" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E235" t="n">
-        <v>39</v>
-      </c>
-      <c r="F235" t="n">
-        <v>45786.8997</v>
-      </c>
-      <c r="G235" t="n">
-        <v>3027648.21228291</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C236" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D236" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E236" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F236" t="n">
-        <v>143747.5305</v>
-      </c>
-      <c r="G236" t="n">
-        <v>3171395.74278291</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C237" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D237" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E237" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="F237" t="n">
-        <v>67509.2157</v>
-      </c>
-      <c r="G237" t="n">
-        <v>3103886.52708291</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C238" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D238" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E238" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="F238" t="n">
-        <v>442585.4744</v>
-      </c>
-      <c r="G238" t="n">
-        <v>3103886.52708291</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="C239" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="E239" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="F239" t="n">
-        <v>191813.8609</v>
-      </c>
-      <c r="G239" t="n">
-        <v>3103886.52708291</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="C240" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D240" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E240" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="F240" t="n">
-        <v>54922.1481</v>
-      </c>
-      <c r="G240" t="n">
-        <v>3158808.67518291</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C241" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="F241" t="n">
-        <v>355115.7872</v>
-      </c>
-      <c r="G241" t="n">
-        <v>3513924.46238291</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="C242" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D242" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="E242" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F242" t="n">
-        <v>337285.7975</v>
-      </c>
-      <c r="G242" t="n">
-        <v>3176638.66488291</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C243" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="D243" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E243" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="F243" t="n">
-        <v>299096.021</v>
-      </c>
-      <c r="G243" t="n">
-        <v>2877542.64388291</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="C244" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D244" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E244" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="F244" t="n">
-        <v>31535.9288</v>
-      </c>
-      <c r="G244" t="n">
-        <v>2909078.57268291</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C245" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D245" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E245" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F245" t="n">
-        <v>18141</v>
-      </c>
-      <c r="G245" t="n">
-        <v>2909078.57268291</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C246" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D246" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E246" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="F246" t="n">
-        <v>131035.4523</v>
-      </c>
-      <c r="G246" t="n">
-        <v>3040114.02498291</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="C247" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D247" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E247" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F247" t="n">
-        <v>122561.0639</v>
-      </c>
-      <c r="G247" t="n">
-        <v>3040114.02498291</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="C248" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D248" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E248" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F248" t="n">
-        <v>24228.1709</v>
-      </c>
-      <c r="G248" t="n">
-        <v>3040114.02498291</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C249" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D249" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E249" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F249" t="n">
-        <v>58097.2927</v>
-      </c>
-      <c r="G249" t="n">
-        <v>3040114.02498291</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C250" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D250" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E250" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F250" t="n">
-        <v>224911.16848962</v>
-      </c>
-      <c r="G250" t="n">
-        <v>3040114.02498291</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="C251" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D251" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E251" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F251" t="n">
-        <v>152525.08217766</v>
-      </c>
-      <c r="G251" t="n">
-        <v>2887588.94280525</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C252" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D252" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E252" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F252" t="n">
-        <v>98077.08442025</v>
-      </c>
-      <c r="G252" t="n">
-        <v>2887588.94280525</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C253" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D253" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E253" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F253" t="n">
-        <v>186811.69131247</v>
-      </c>
-      <c r="G253" t="n">
-        <v>3074400.63411772</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="C254" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D254" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="E254" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F254" t="n">
-        <v>9791.0318893</v>
-      </c>
-      <c r="G254" t="n">
-        <v>3074400.63411772</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9258,7 +9692,7 @@
         <v>3110724.97044805</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9291,7 +9725,7 @@
         <v>3803880.49338627</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9324,7 +9758,7 @@
         <v>3494110.61228627</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9357,7 +9791,7 @@
         <v>3494110.61228627</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9390,7 +9824,7 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9423,7 +9857,7 @@
         <v>3245368.54258627</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9456,7 +9890,7 @@
         <v>2866849.87948627</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9489,7 +9923,7 @@
         <v>2687385.99168627</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -15396,7 +15830,7 @@
         <v>2991281.258570228</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15429,7 +15863,7 @@
         <v>2991296.258570228</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15462,7 +15896,7 @@
         <v>2959362.019370228</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15495,7 +15929,7 @@
         <v>2959362.019370228</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17442,7 +17876,7 @@
         <v>3177962.765981757</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
